--- a/docs/excel/PalacePart.xlsx
+++ b/docs/excel/PalacePart.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
+    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="PassParts" sheetId="1" r:id="rId1"/>
+    <sheet name="PalaceParts" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -79,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TableName: "PassParts" Package: "table" CSClassHeader: "[System.Serializable]"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PartId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,6 +126,10 @@
   </si>
   <si>
     <t>1_1500,2_999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableName: "PalaceParts" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M305"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -568,16 +568,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -585,16 +585,16 @@
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -602,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -610,16 +610,16 @@
         <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -633,7 +633,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
@@ -650,7 +650,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="4">
         <v>2</v>
@@ -1712,9 +1712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1725,7 +1723,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/docs/excel/PalacePart.xlsx
+++ b/docs/excel/PalacePart.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204" activeTab="1"/>
+    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="PalaceParts" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="62">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -113,10 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1_1000,2_999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Charm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,19 +121,135 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1_1500,2_999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TableName: "PalaceParts" Package: "table" CSClassHeader: "[System.Serializable]"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1000,0_999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1500,0_999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1000,0_1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1500,0_1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1000,0_1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1500,0_1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1000,0_1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1500,0_1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1000,0_1003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1500,0_1003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_1000,1_999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_1500,1_999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_1000,1_1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_1500,1_1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_1000,1_1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_1500,1_1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_1000,1_1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_1500,1_1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_1000,1_1003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_1500,1_1003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_1000,2_999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_1500,2_999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_1000,2_1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_1500,2_1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_1000,2_1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_1500,2_1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_1000,2_1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_1500,2_1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_1000,2_1003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_1500,2_1003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -543,14 +655,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M305"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="D159" sqref="D159:D168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="50" style="5" customWidth="1"/>
     <col min="2" max="2" width="6.19921875" style="5" bestFit="1" customWidth="1"/>
@@ -563,7 +675,7 @@
     <col min="14" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -577,10 +689,10 @@
         <v>25</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -597,7 +709,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -605,7 +717,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -619,1081 +731,3242 @@
         <v>28</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="5">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="4">
-        <v>1</v>
+      <c r="B6" s="5">
+        <v>101</v>
       </c>
       <c r="C6" s="4">
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="4"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="4"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="4"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="4"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="4"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="4"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="4"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="4"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="4"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="4"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="4"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="4"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="4"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="4"/>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="4"/>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="4"/>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="4"/>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="4"/>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="4"/>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="4"/>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="4"/>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="4"/>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="4"/>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="4"/>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="4"/>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="4"/>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="4"/>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="4"/>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="4"/>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="4"/>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="4"/>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="4"/>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="4"/>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="4"/>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="4"/>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="4"/>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="4"/>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="4"/>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="4"/>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="4"/>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="4"/>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="4"/>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="4"/>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="4"/>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="4"/>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="4"/>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="4"/>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="4"/>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="4"/>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="4"/>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="4"/>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="4"/>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="4"/>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="4"/>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="4"/>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="4"/>
-      <c r="B105" s="4"/>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="4"/>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="4"/>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="4"/>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="4"/>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="4"/>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="4"/>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="4"/>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="4"/>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="4"/>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="4"/>
-      <c r="B123" s="4"/>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="4"/>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="4"/>
-      <c r="B125" s="4"/>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="4"/>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="4"/>
-      <c r="B127" s="4"/>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="4"/>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="4"/>
-      <c r="B129" s="4"/>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="4"/>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="4"/>
-      <c r="B131" s="4"/>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="4"/>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="4"/>
-      <c r="B133" s="4"/>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="4"/>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="4"/>
-      <c r="B135" s="4"/>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="4"/>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="4"/>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="4"/>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="4"/>
-      <c r="B141" s="4"/>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="4"/>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="4"/>
-      <c r="B143" s="4"/>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="4"/>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="4"/>
-      <c r="B145" s="4"/>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="4"/>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="4"/>
-      <c r="B147" s="4"/>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="4"/>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="4"/>
-      <c r="B149" s="4"/>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="4"/>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="4"/>
-      <c r="B151" s="4"/>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="4"/>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="4"/>
-      <c r="B153" s="4"/>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="4"/>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="4"/>
-      <c r="B155" s="4"/>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="4"/>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="4"/>
-      <c r="B157" s="4"/>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="4"/>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="4"/>
-      <c r="B159" s="4"/>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="4"/>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="4"/>
-      <c r="B161" s="4"/>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="4"/>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="4"/>
-      <c r="B163" s="4"/>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="4"/>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="4"/>
-      <c r="B165" s="4"/>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="4"/>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="4"/>
-      <c r="B167" s="4"/>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="4"/>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="4"/>
-      <c r="B169" s="4"/>
-    </row>
-    <row r="170" spans="1:2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5">
+        <v>101</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5">
+        <v>101</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5">
+        <v>101</v>
+      </c>
+      <c r="C9" s="4">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5">
+        <v>101</v>
+      </c>
+      <c r="C10" s="4">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5">
+        <v>101</v>
+      </c>
+      <c r="C11" s="4">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5">
+        <v>101</v>
+      </c>
+      <c r="C12" s="4">
+        <v>8</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5">
+        <v>101</v>
+      </c>
+      <c r="C13" s="4">
+        <v>9</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5">
+        <v>101</v>
+      </c>
+      <c r="C14" s="4">
+        <v>10</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5">
+        <v>101</v>
+      </c>
+      <c r="C15" s="4">
+        <v>11</v>
+      </c>
+      <c r="E15" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5">
+        <v>102</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>13</v>
+      </c>
+      <c r="B17" s="5">
+        <v>102</v>
+      </c>
+      <c r="C17" s="4">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>14</v>
+      </c>
+      <c r="B18" s="5">
+        <v>102</v>
+      </c>
+      <c r="C18" s="4">
+        <v>3</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5">
+        <v>102</v>
+      </c>
+      <c r="C19" s="4">
+        <v>4</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>16</v>
+      </c>
+      <c r="B20" s="5">
+        <v>102</v>
+      </c>
+      <c r="C20" s="4">
+        <v>5</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>17</v>
+      </c>
+      <c r="B21" s="5">
+        <v>102</v>
+      </c>
+      <c r="C21" s="4">
+        <v>6</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>18</v>
+      </c>
+      <c r="B22" s="5">
+        <v>102</v>
+      </c>
+      <c r="C22" s="4">
+        <v>7</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>19</v>
+      </c>
+      <c r="B23" s="5">
+        <v>102</v>
+      </c>
+      <c r="C23" s="4">
+        <v>8</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>20</v>
+      </c>
+      <c r="B24" s="5">
+        <v>102</v>
+      </c>
+      <c r="C24" s="4">
+        <v>9</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>21</v>
+      </c>
+      <c r="B25" s="5">
+        <v>102</v>
+      </c>
+      <c r="C25" s="4">
+        <v>10</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>22</v>
+      </c>
+      <c r="B26" s="5">
+        <v>102</v>
+      </c>
+      <c r="C26" s="4">
+        <v>11</v>
+      </c>
+      <c r="E26" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>23</v>
+      </c>
+      <c r="B27" s="5">
+        <v>103</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>24</v>
+      </c>
+      <c r="B28" s="5">
+        <v>103</v>
+      </c>
+      <c r="C28" s="4">
+        <v>2</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>25</v>
+      </c>
+      <c r="B29" s="5">
+        <v>103</v>
+      </c>
+      <c r="C29" s="4">
+        <v>3</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>26</v>
+      </c>
+      <c r="B30" s="5">
+        <v>103</v>
+      </c>
+      <c r="C30" s="4">
+        <v>4</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>27</v>
+      </c>
+      <c r="B31" s="5">
+        <v>103</v>
+      </c>
+      <c r="C31" s="4">
+        <v>5</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>28</v>
+      </c>
+      <c r="B32" s="5">
+        <v>103</v>
+      </c>
+      <c r="C32" s="4">
+        <v>6</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>29</v>
+      </c>
+      <c r="B33" s="5">
+        <v>103</v>
+      </c>
+      <c r="C33" s="4">
+        <v>7</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>30</v>
+      </c>
+      <c r="B34" s="5">
+        <v>103</v>
+      </c>
+      <c r="C34" s="4">
+        <v>8</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>31</v>
+      </c>
+      <c r="B35" s="5">
+        <v>103</v>
+      </c>
+      <c r="C35" s="4">
+        <v>9</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>32</v>
+      </c>
+      <c r="B36" s="5">
+        <v>103</v>
+      </c>
+      <c r="C36" s="4">
+        <v>10</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>33</v>
+      </c>
+      <c r="B37" s="5">
+        <v>103</v>
+      </c>
+      <c r="C37" s="4">
+        <v>11</v>
+      </c>
+      <c r="E37" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>34</v>
+      </c>
+      <c r="B38" s="5">
+        <v>104</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>35</v>
+      </c>
+      <c r="B39" s="5">
+        <v>104</v>
+      </c>
+      <c r="C39" s="4">
+        <v>2</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>36</v>
+      </c>
+      <c r="B40" s="5">
+        <v>104</v>
+      </c>
+      <c r="C40" s="4">
+        <v>3</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>37</v>
+      </c>
+      <c r="B41" s="5">
+        <v>104</v>
+      </c>
+      <c r="C41" s="4">
+        <v>4</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>38</v>
+      </c>
+      <c r="B42" s="5">
+        <v>104</v>
+      </c>
+      <c r="C42" s="4">
+        <v>5</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>39</v>
+      </c>
+      <c r="B43" s="5">
+        <v>104</v>
+      </c>
+      <c r="C43" s="4">
+        <v>6</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>40</v>
+      </c>
+      <c r="B44" s="5">
+        <v>104</v>
+      </c>
+      <c r="C44" s="4">
+        <v>7</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>41</v>
+      </c>
+      <c r="B45" s="5">
+        <v>104</v>
+      </c>
+      <c r="C45" s="4">
+        <v>8</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>42</v>
+      </c>
+      <c r="B46" s="5">
+        <v>104</v>
+      </c>
+      <c r="C46" s="4">
+        <v>9</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>43</v>
+      </c>
+      <c r="B47" s="5">
+        <v>104</v>
+      </c>
+      <c r="C47" s="4">
+        <v>10</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>44</v>
+      </c>
+      <c r="B48" s="5">
+        <v>104</v>
+      </c>
+      <c r="C48" s="4">
+        <v>11</v>
+      </c>
+      <c r="E48" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>45</v>
+      </c>
+      <c r="B49" s="5">
+        <v>105</v>
+      </c>
+      <c r="C49" s="4">
+        <v>1</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>46</v>
+      </c>
+      <c r="B50" s="5">
+        <v>105</v>
+      </c>
+      <c r="C50" s="4">
+        <v>2</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>47</v>
+      </c>
+      <c r="B51" s="5">
+        <v>105</v>
+      </c>
+      <c r="C51" s="4">
+        <v>3</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>48</v>
+      </c>
+      <c r="B52" s="5">
+        <v>105</v>
+      </c>
+      <c r="C52" s="4">
+        <v>4</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>49</v>
+      </c>
+      <c r="B53" s="5">
+        <v>105</v>
+      </c>
+      <c r="C53" s="4">
+        <v>5</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>50</v>
+      </c>
+      <c r="B54" s="5">
+        <v>105</v>
+      </c>
+      <c r="C54" s="4">
+        <v>6</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>51</v>
+      </c>
+      <c r="B55" s="5">
+        <v>105</v>
+      </c>
+      <c r="C55" s="4">
+        <v>7</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E55" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>52</v>
+      </c>
+      <c r="B56" s="5">
+        <v>105</v>
+      </c>
+      <c r="C56" s="4">
+        <v>8</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E56" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>53</v>
+      </c>
+      <c r="B57" s="5">
+        <v>105</v>
+      </c>
+      <c r="C57" s="4">
+        <v>9</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E57" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <v>54</v>
+      </c>
+      <c r="B58" s="5">
+        <v>105</v>
+      </c>
+      <c r="C58" s="4">
+        <v>10</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E58" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
+        <v>55</v>
+      </c>
+      <c r="B59" s="5">
+        <v>105</v>
+      </c>
+      <c r="C59" s="4">
+        <v>11</v>
+      </c>
+      <c r="E59" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
+        <v>56</v>
+      </c>
+      <c r="B60" s="5">
+        <v>201</v>
+      </c>
+      <c r="C60" s="4">
+        <v>1</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
+        <v>57</v>
+      </c>
+      <c r="B61" s="5">
+        <v>201</v>
+      </c>
+      <c r="C61" s="4">
+        <v>2</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E61" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
+        <v>58</v>
+      </c>
+      <c r="B62" s="5">
+        <v>201</v>
+      </c>
+      <c r="C62" s="4">
+        <v>3</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E62" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="4">
+        <v>59</v>
+      </c>
+      <c r="B63" s="5">
+        <v>201</v>
+      </c>
+      <c r="C63" s="4">
+        <v>4</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E63" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="4">
+        <v>60</v>
+      </c>
+      <c r="B64" s="5">
+        <v>201</v>
+      </c>
+      <c r="C64" s="4">
+        <v>5</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E64" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="4">
+        <v>61</v>
+      </c>
+      <c r="B65" s="5">
+        <v>201</v>
+      </c>
+      <c r="C65" s="4">
+        <v>6</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E65" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="4">
+        <v>62</v>
+      </c>
+      <c r="B66" s="5">
+        <v>201</v>
+      </c>
+      <c r="C66" s="4">
+        <v>7</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E66" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="4">
+        <v>63</v>
+      </c>
+      <c r="B67" s="5">
+        <v>201</v>
+      </c>
+      <c r="C67" s="4">
+        <v>8</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E67" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="4">
+        <v>64</v>
+      </c>
+      <c r="B68" s="5">
+        <v>201</v>
+      </c>
+      <c r="C68" s="4">
+        <v>9</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E68" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="4">
+        <v>65</v>
+      </c>
+      <c r="B69" s="5">
+        <v>201</v>
+      </c>
+      <c r="C69" s="4">
+        <v>10</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E69" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="4">
+        <v>66</v>
+      </c>
+      <c r="B70" s="5">
+        <v>201</v>
+      </c>
+      <c r="C70" s="4">
+        <v>11</v>
+      </c>
+      <c r="E70" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="4">
+        <v>67</v>
+      </c>
+      <c r="B71" s="5">
+        <v>202</v>
+      </c>
+      <c r="C71" s="4">
+        <v>1</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E71" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="4">
+        <v>68</v>
+      </c>
+      <c r="B72" s="5">
+        <v>202</v>
+      </c>
+      <c r="C72" s="4">
+        <v>2</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E72" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="4">
+        <v>69</v>
+      </c>
+      <c r="B73" s="5">
+        <v>202</v>
+      </c>
+      <c r="C73" s="4">
+        <v>3</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E73" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="4">
+        <v>70</v>
+      </c>
+      <c r="B74" s="5">
+        <v>202</v>
+      </c>
+      <c r="C74" s="4">
+        <v>4</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E74" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="4">
+        <v>71</v>
+      </c>
+      <c r="B75" s="5">
+        <v>202</v>
+      </c>
+      <c r="C75" s="4">
+        <v>5</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E75" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="4">
+        <v>72</v>
+      </c>
+      <c r="B76" s="5">
+        <v>202</v>
+      </c>
+      <c r="C76" s="4">
+        <v>6</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E76" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="4">
+        <v>73</v>
+      </c>
+      <c r="B77" s="5">
+        <v>202</v>
+      </c>
+      <c r="C77" s="4">
+        <v>7</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E77" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="4">
+        <v>74</v>
+      </c>
+      <c r="B78" s="5">
+        <v>202</v>
+      </c>
+      <c r="C78" s="4">
+        <v>8</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E78" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="4">
+        <v>75</v>
+      </c>
+      <c r="B79" s="5">
+        <v>202</v>
+      </c>
+      <c r="C79" s="4">
+        <v>9</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E79" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="4">
+        <v>76</v>
+      </c>
+      <c r="B80" s="5">
+        <v>202</v>
+      </c>
+      <c r="C80" s="4">
+        <v>10</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E80" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="4">
+        <v>77</v>
+      </c>
+      <c r="B81" s="5">
+        <v>202</v>
+      </c>
+      <c r="C81" s="4">
+        <v>11</v>
+      </c>
+      <c r="E81" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="4">
+        <v>78</v>
+      </c>
+      <c r="B82" s="5">
+        <v>203</v>
+      </c>
+      <c r="C82" s="4">
+        <v>1</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E82" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="4">
+        <v>79</v>
+      </c>
+      <c r="B83" s="5">
+        <v>203</v>
+      </c>
+      <c r="C83" s="4">
+        <v>2</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E83" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="4">
+        <v>80</v>
+      </c>
+      <c r="B84" s="5">
+        <v>203</v>
+      </c>
+      <c r="C84" s="4">
+        <v>3</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E84" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="4">
+        <v>81</v>
+      </c>
+      <c r="B85" s="5">
+        <v>203</v>
+      </c>
+      <c r="C85" s="4">
+        <v>4</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E85" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="4">
+        <v>82</v>
+      </c>
+      <c r="B86" s="5">
+        <v>203</v>
+      </c>
+      <c r="C86" s="4">
+        <v>5</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E86" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="4">
+        <v>83</v>
+      </c>
+      <c r="B87" s="5">
+        <v>203</v>
+      </c>
+      <c r="C87" s="4">
+        <v>6</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E87" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="4">
+        <v>84</v>
+      </c>
+      <c r="B88" s="5">
+        <v>203</v>
+      </c>
+      <c r="C88" s="4">
+        <v>7</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E88" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="4">
+        <v>85</v>
+      </c>
+      <c r="B89" s="5">
+        <v>203</v>
+      </c>
+      <c r="C89" s="4">
+        <v>8</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E89" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="4">
+        <v>86</v>
+      </c>
+      <c r="B90" s="5">
+        <v>203</v>
+      </c>
+      <c r="C90" s="4">
+        <v>9</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E90" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="4">
+        <v>87</v>
+      </c>
+      <c r="B91" s="5">
+        <v>203</v>
+      </c>
+      <c r="C91" s="4">
+        <v>10</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E91" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="4">
+        <v>88</v>
+      </c>
+      <c r="B92" s="5">
+        <v>203</v>
+      </c>
+      <c r="C92" s="4">
+        <v>11</v>
+      </c>
+      <c r="E92" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="4">
+        <v>89</v>
+      </c>
+      <c r="B93" s="5">
+        <v>204</v>
+      </c>
+      <c r="C93" s="4">
+        <v>1</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E93" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="4">
+        <v>90</v>
+      </c>
+      <c r="B94" s="5">
+        <v>204</v>
+      </c>
+      <c r="C94" s="4">
+        <v>2</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E94" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="4">
+        <v>91</v>
+      </c>
+      <c r="B95" s="5">
+        <v>204</v>
+      </c>
+      <c r="C95" s="4">
+        <v>3</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E95" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="4">
+        <v>92</v>
+      </c>
+      <c r="B96" s="5">
+        <v>204</v>
+      </c>
+      <c r="C96" s="4">
+        <v>4</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E96" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="4">
+        <v>93</v>
+      </c>
+      <c r="B97" s="5">
+        <v>204</v>
+      </c>
+      <c r="C97" s="4">
+        <v>5</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E97" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="4">
+        <v>94</v>
+      </c>
+      <c r="B98" s="5">
+        <v>204</v>
+      </c>
+      <c r="C98" s="4">
+        <v>6</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E98" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="4">
+        <v>95</v>
+      </c>
+      <c r="B99" s="5">
+        <v>204</v>
+      </c>
+      <c r="C99" s="4">
+        <v>7</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E99" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="4">
+        <v>96</v>
+      </c>
+      <c r="B100" s="5">
+        <v>204</v>
+      </c>
+      <c r="C100" s="4">
+        <v>8</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E100" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="4">
+        <v>97</v>
+      </c>
+      <c r="B101" s="5">
+        <v>204</v>
+      </c>
+      <c r="C101" s="4">
+        <v>9</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E101" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="4">
+        <v>98</v>
+      </c>
+      <c r="B102" s="5">
+        <v>204</v>
+      </c>
+      <c r="C102" s="4">
+        <v>10</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E102" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="4">
+        <v>99</v>
+      </c>
+      <c r="B103" s="5">
+        <v>204</v>
+      </c>
+      <c r="C103" s="4">
+        <v>11</v>
+      </c>
+      <c r="E103" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="4">
+        <v>100</v>
+      </c>
+      <c r="B104" s="5">
+        <v>205</v>
+      </c>
+      <c r="C104" s="4">
+        <v>1</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E104" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="4">
+        <v>101</v>
+      </c>
+      <c r="B105" s="5">
+        <v>205</v>
+      </c>
+      <c r="C105" s="4">
+        <v>2</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E105" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="4">
+        <v>102</v>
+      </c>
+      <c r="B106" s="5">
+        <v>205</v>
+      </c>
+      <c r="C106" s="4">
+        <v>3</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E106" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="4">
+        <v>103</v>
+      </c>
+      <c r="B107" s="5">
+        <v>205</v>
+      </c>
+      <c r="C107" s="4">
+        <v>4</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E107" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="4">
+        <v>104</v>
+      </c>
+      <c r="B108" s="5">
+        <v>205</v>
+      </c>
+      <c r="C108" s="4">
+        <v>5</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E108" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="4">
+        <v>105</v>
+      </c>
+      <c r="B109" s="5">
+        <v>205</v>
+      </c>
+      <c r="C109" s="4">
+        <v>6</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E109" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="4">
+        <v>106</v>
+      </c>
+      <c r="B110" s="5">
+        <v>205</v>
+      </c>
+      <c r="C110" s="4">
+        <v>7</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E110" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="4">
+        <v>107</v>
+      </c>
+      <c r="B111" s="5">
+        <v>205</v>
+      </c>
+      <c r="C111" s="4">
+        <v>8</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E111" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="4">
+        <v>108</v>
+      </c>
+      <c r="B112" s="5">
+        <v>205</v>
+      </c>
+      <c r="C112" s="4">
+        <v>9</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E112" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="4">
+        <v>109</v>
+      </c>
+      <c r="B113" s="5">
+        <v>205</v>
+      </c>
+      <c r="C113" s="4">
+        <v>10</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E113" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="4">
+        <v>110</v>
+      </c>
+      <c r="B114" s="5">
+        <v>205</v>
+      </c>
+      <c r="C114" s="4">
+        <v>11</v>
+      </c>
+      <c r="E114" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="4">
+        <v>111</v>
+      </c>
+      <c r="B115" s="5">
+        <v>301</v>
+      </c>
+      <c r="C115" s="4">
+        <v>1</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E115" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="4">
+        <v>112</v>
+      </c>
+      <c r="B116" s="5">
+        <v>301</v>
+      </c>
+      <c r="C116" s="4">
+        <v>2</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E116" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="4">
+        <v>113</v>
+      </c>
+      <c r="B117" s="5">
+        <v>301</v>
+      </c>
+      <c r="C117" s="4">
+        <v>3</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E117" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="4">
+        <v>114</v>
+      </c>
+      <c r="B118" s="5">
+        <v>301</v>
+      </c>
+      <c r="C118" s="4">
+        <v>4</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E118" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="4">
+        <v>115</v>
+      </c>
+      <c r="B119" s="5">
+        <v>301</v>
+      </c>
+      <c r="C119" s="4">
+        <v>5</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E119" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="4">
+        <v>116</v>
+      </c>
+      <c r="B120" s="5">
+        <v>301</v>
+      </c>
+      <c r="C120" s="4">
+        <v>6</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E120" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="4">
+        <v>117</v>
+      </c>
+      <c r="B121" s="5">
+        <v>301</v>
+      </c>
+      <c r="C121" s="4">
+        <v>7</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E121" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="4">
+        <v>118</v>
+      </c>
+      <c r="B122" s="5">
+        <v>301</v>
+      </c>
+      <c r="C122" s="4">
+        <v>8</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E122" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="4">
+        <v>119</v>
+      </c>
+      <c r="B123" s="5">
+        <v>301</v>
+      </c>
+      <c r="C123" s="4">
+        <v>9</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E123" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="4">
+        <v>120</v>
+      </c>
+      <c r="B124" s="5">
+        <v>301</v>
+      </c>
+      <c r="C124" s="4">
+        <v>10</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E124" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="4">
+        <v>121</v>
+      </c>
+      <c r="B125" s="5">
+        <v>301</v>
+      </c>
+      <c r="C125" s="4">
+        <v>11</v>
+      </c>
+      <c r="E125" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="4">
+        <v>122</v>
+      </c>
+      <c r="B126" s="5">
+        <v>302</v>
+      </c>
+      <c r="C126" s="4">
+        <v>1</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E126" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="4">
+        <v>123</v>
+      </c>
+      <c r="B127" s="5">
+        <v>302</v>
+      </c>
+      <c r="C127" s="4">
+        <v>2</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E127" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="4">
+        <v>124</v>
+      </c>
+      <c r="B128" s="5">
+        <v>302</v>
+      </c>
+      <c r="C128" s="4">
+        <v>3</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E128" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="4">
+        <v>125</v>
+      </c>
+      <c r="B129" s="5">
+        <v>302</v>
+      </c>
+      <c r="C129" s="4">
+        <v>4</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E129" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="4">
+        <v>126</v>
+      </c>
+      <c r="B130" s="5">
+        <v>302</v>
+      </c>
+      <c r="C130" s="4">
+        <v>5</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E130" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="4">
+        <v>127</v>
+      </c>
+      <c r="B131" s="5">
+        <v>302</v>
+      </c>
+      <c r="C131" s="4">
+        <v>6</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E131" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="4">
+        <v>128</v>
+      </c>
+      <c r="B132" s="5">
+        <v>302</v>
+      </c>
+      <c r="C132" s="4">
+        <v>7</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E132" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="4">
+        <v>129</v>
+      </c>
+      <c r="B133" s="5">
+        <v>302</v>
+      </c>
+      <c r="C133" s="4">
+        <v>8</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E133" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="4">
+        <v>130</v>
+      </c>
+      <c r="B134" s="5">
+        <v>302</v>
+      </c>
+      <c r="C134" s="4">
+        <v>9</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E134" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="4">
+        <v>131</v>
+      </c>
+      <c r="B135" s="5">
+        <v>302</v>
+      </c>
+      <c r="C135" s="4">
+        <v>10</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E135" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="4">
+        <v>132</v>
+      </c>
+      <c r="B136" s="5">
+        <v>302</v>
+      </c>
+      <c r="C136" s="4">
+        <v>11</v>
+      </c>
+      <c r="E136" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="4">
+        <v>133</v>
+      </c>
+      <c r="B137" s="5">
+        <v>303</v>
+      </c>
+      <c r="C137" s="4">
+        <v>1</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E137" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="4">
+        <v>134</v>
+      </c>
+      <c r="B138" s="5">
+        <v>303</v>
+      </c>
+      <c r="C138" s="4">
+        <v>2</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E138" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="4">
+        <v>135</v>
+      </c>
+      <c r="B139" s="5">
+        <v>303</v>
+      </c>
+      <c r="C139" s="4">
+        <v>3</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E139" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="4">
+        <v>136</v>
+      </c>
+      <c r="B140" s="5">
+        <v>303</v>
+      </c>
+      <c r="C140" s="4">
+        <v>4</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E140" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="4">
+        <v>137</v>
+      </c>
+      <c r="B141" s="5">
+        <v>303</v>
+      </c>
+      <c r="C141" s="4">
+        <v>5</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E141" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="4">
+        <v>138</v>
+      </c>
+      <c r="B142" s="5">
+        <v>303</v>
+      </c>
+      <c r="C142" s="4">
+        <v>6</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E142" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="4">
+        <v>139</v>
+      </c>
+      <c r="B143" s="5">
+        <v>303</v>
+      </c>
+      <c r="C143" s="4">
+        <v>7</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E143" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="4">
+        <v>140</v>
+      </c>
+      <c r="B144" s="5">
+        <v>303</v>
+      </c>
+      <c r="C144" s="4">
+        <v>8</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E144" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="4">
+        <v>141</v>
+      </c>
+      <c r="B145" s="5">
+        <v>303</v>
+      </c>
+      <c r="C145" s="4">
+        <v>9</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E145" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="4">
+        <v>142</v>
+      </c>
+      <c r="B146" s="5">
+        <v>303</v>
+      </c>
+      <c r="C146" s="4">
+        <v>10</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E146" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="4">
+        <v>143</v>
+      </c>
+      <c r="B147" s="5">
+        <v>303</v>
+      </c>
+      <c r="C147" s="4">
+        <v>11</v>
+      </c>
+      <c r="E147" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="4">
+        <v>144</v>
+      </c>
+      <c r="B148" s="5">
+        <v>404</v>
+      </c>
+      <c r="C148" s="4">
+        <v>1</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E148" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="4">
+        <v>145</v>
+      </c>
+      <c r="B149" s="5">
+        <v>404</v>
+      </c>
+      <c r="C149" s="4">
+        <v>2</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E149" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="4">
+        <v>146</v>
+      </c>
+      <c r="B150" s="5">
+        <v>404</v>
+      </c>
+      <c r="C150" s="4">
+        <v>3</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E150" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="4">
+        <v>147</v>
+      </c>
+      <c r="B151" s="5">
+        <v>404</v>
+      </c>
+      <c r="C151" s="4">
+        <v>4</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E151" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="4">
+        <v>148</v>
+      </c>
+      <c r="B152" s="5">
+        <v>404</v>
+      </c>
+      <c r="C152" s="4">
+        <v>5</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E152" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="4">
+        <v>149</v>
+      </c>
+      <c r="B153" s="5">
+        <v>404</v>
+      </c>
+      <c r="C153" s="4">
+        <v>6</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E153" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="4">
+        <v>150</v>
+      </c>
+      <c r="B154" s="5">
+        <v>404</v>
+      </c>
+      <c r="C154" s="4">
+        <v>7</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E154" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="4">
+        <v>151</v>
+      </c>
+      <c r="B155" s="5">
+        <v>404</v>
+      </c>
+      <c r="C155" s="4">
+        <v>8</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E155" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="4">
+        <v>152</v>
+      </c>
+      <c r="B156" s="5">
+        <v>404</v>
+      </c>
+      <c r="C156" s="4">
+        <v>9</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E156" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="4">
+        <v>153</v>
+      </c>
+      <c r="B157" s="5">
+        <v>404</v>
+      </c>
+      <c r="C157" s="4">
+        <v>10</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E157" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="4">
+        <v>154</v>
+      </c>
+      <c r="B158" s="5">
+        <v>404</v>
+      </c>
+      <c r="C158" s="4">
+        <v>11</v>
+      </c>
+      <c r="E158" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="4">
+        <v>155</v>
+      </c>
+      <c r="B159" s="5">
+        <v>505</v>
+      </c>
+      <c r="C159" s="4">
+        <v>1</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E159" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="4">
+        <v>156</v>
+      </c>
+      <c r="B160" s="5">
+        <v>505</v>
+      </c>
+      <c r="C160" s="4">
+        <v>2</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E160" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="4">
+        <v>157</v>
+      </c>
+      <c r="B161" s="5">
+        <v>505</v>
+      </c>
+      <c r="C161" s="4">
+        <v>3</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E161" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="4">
+        <v>158</v>
+      </c>
+      <c r="B162" s="5">
+        <v>505</v>
+      </c>
+      <c r="C162" s="4">
+        <v>4</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E162" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="4">
+        <v>159</v>
+      </c>
+      <c r="B163" s="5">
+        <v>505</v>
+      </c>
+      <c r="C163" s="4">
+        <v>5</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E163" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="4">
+        <v>160</v>
+      </c>
+      <c r="B164" s="5">
+        <v>505</v>
+      </c>
+      <c r="C164" s="4">
+        <v>6</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E164" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" s="4">
+        <v>161</v>
+      </c>
+      <c r="B165" s="5">
+        <v>505</v>
+      </c>
+      <c r="C165" s="4">
+        <v>7</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E165" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="4">
+        <v>162</v>
+      </c>
+      <c r="B166" s="5">
+        <v>505</v>
+      </c>
+      <c r="C166" s="4">
+        <v>8</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E166" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" s="4">
+        <v>163</v>
+      </c>
+      <c r="B167" s="5">
+        <v>505</v>
+      </c>
+      <c r="C167" s="4">
+        <v>9</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E167" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="4">
+        <v>164</v>
+      </c>
+      <c r="B168" s="5">
+        <v>505</v>
+      </c>
+      <c r="C168" s="4">
+        <v>10</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E168" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="4">
+        <v>165</v>
+      </c>
+      <c r="B169" s="5">
+        <v>505</v>
+      </c>
+      <c r="C169" s="4">
+        <v>11</v>
+      </c>
+      <c r="E169" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="4"/>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="4"/>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="4"/>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="4"/>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="4"/>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="4"/>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="4"/>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="4"/>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" s="4"/>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="4"/>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="4"/>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" s="4"/>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="4"/>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="4"/>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" s="4"/>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" s="4"/>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" s="4"/>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" s="4"/>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" s="4"/>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" s="4"/>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" s="4"/>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" s="4"/>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" s="4"/>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" s="4"/>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" s="4"/>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" s="4"/>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" s="4"/>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" s="4"/>
     </row>
-    <row r="303" spans="1:2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" s="4"/>
     </row>
-    <row r="305" spans="1:2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
     </row>
@@ -1709,24 +3982,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="70" style="2" customWidth="1"/>
     <col min="2" max="8" width="8.796875" style="2"/>
     <col min="9" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1752,7 +4025,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>

--- a/docs/excel/PalacePart.xlsx
+++ b/docs/excel/PalacePart.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="70">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -242,6 +242,38 @@
   </si>
   <si>
     <t>3_1500,2_1003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PartName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家具名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯笼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栏窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客椅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地毯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -249,7 +281,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -269,6 +301,12 @@
       <sz val="12"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -303,7 +341,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -316,6 +354,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -658,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="D159" sqref="D159:D168"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F115" sqref="F115:F169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -669,13 +710,14 @@
     <col min="3" max="3" width="17.796875" style="4" customWidth="1"/>
     <col min="4" max="4" width="14.59765625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.296875" customWidth="1"/>
     <col min="7" max="7" width="8.796875" style="4"/>
     <col min="8" max="8" width="12.5" style="4" customWidth="1"/>
     <col min="9" max="10" width="8.796875" style="4"/>
     <col min="14" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -691,8 +733,11 @@
       <c r="E1" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -708,8 +753,11 @@
       <c r="E2" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -717,7 +765,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -733,8 +781,11 @@
       <c r="E4" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -750,8 +801,12 @@
       <c r="E5" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -767,8 +822,11 @@
       <c r="E6" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -784,8 +842,11 @@
       <c r="E7" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -801,8 +862,11 @@
       <c r="E8" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -818,8 +882,11 @@
       <c r="E9" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -835,8 +902,11 @@
       <c r="E10" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -852,8 +922,11 @@
       <c r="E11" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>8</v>
       </c>
@@ -869,8 +942,11 @@
       <c r="E12" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>9</v>
       </c>
@@ -886,8 +962,11 @@
       <c r="E13" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>10</v>
       </c>
@@ -903,8 +982,11 @@
       <c r="E14" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>11</v>
       </c>
@@ -917,8 +999,11 @@
       <c r="E15" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>12</v>
       </c>
@@ -934,8 +1019,11 @@
       <c r="E16" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>13</v>
       </c>
@@ -951,8 +1039,11 @@
       <c r="E17" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>14</v>
       </c>
@@ -968,8 +1059,11 @@
       <c r="E18" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>15</v>
       </c>
@@ -985,8 +1079,11 @@
       <c r="E19" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>16</v>
       </c>
@@ -1002,8 +1099,11 @@
       <c r="E20" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>17</v>
       </c>
@@ -1019,8 +1119,11 @@
       <c r="E21" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>18</v>
       </c>
@@ -1036,8 +1139,11 @@
       <c r="E22" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>19</v>
       </c>
@@ -1053,8 +1159,11 @@
       <c r="E23" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>20</v>
       </c>
@@ -1070,8 +1179,11 @@
       <c r="E24" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>21</v>
       </c>
@@ -1087,8 +1199,11 @@
       <c r="E25" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>22</v>
       </c>
@@ -1101,8 +1216,11 @@
       <c r="E26" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>23</v>
       </c>
@@ -1118,8 +1236,11 @@
       <c r="E27" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>24</v>
       </c>
@@ -1135,8 +1256,11 @@
       <c r="E28" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>25</v>
       </c>
@@ -1152,8 +1276,11 @@
       <c r="E29" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>26</v>
       </c>
@@ -1169,8 +1296,11 @@
       <c r="E30" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>27</v>
       </c>
@@ -1186,8 +1316,11 @@
       <c r="E31" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>28</v>
       </c>
@@ -1203,8 +1336,11 @@
       <c r="E32" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>29</v>
       </c>
@@ -1220,8 +1356,11 @@
       <c r="E33" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>30</v>
       </c>
@@ -1237,8 +1376,11 @@
       <c r="E34" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>31</v>
       </c>
@@ -1254,8 +1396,11 @@
       <c r="E35" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>32</v>
       </c>
@@ -1271,8 +1416,11 @@
       <c r="E36" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>33</v>
       </c>
@@ -1285,8 +1433,11 @@
       <c r="E37" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>34</v>
       </c>
@@ -1302,8 +1453,11 @@
       <c r="E38" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>35</v>
       </c>
@@ -1319,8 +1473,11 @@
       <c r="E39" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>36</v>
       </c>
@@ -1336,8 +1493,11 @@
       <c r="E40" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>37</v>
       </c>
@@ -1353,8 +1513,11 @@
       <c r="E41" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>38</v>
       </c>
@@ -1370,8 +1533,11 @@
       <c r="E42" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>39</v>
       </c>
@@ -1387,8 +1553,11 @@
       <c r="E43" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>40</v>
       </c>
@@ -1404,8 +1573,11 @@
       <c r="E44" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>41</v>
       </c>
@@ -1421,8 +1593,11 @@
       <c r="E45" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>42</v>
       </c>
@@ -1438,8 +1613,11 @@
       <c r="E46" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>43</v>
       </c>
@@ -1455,8 +1633,11 @@
       <c r="E47" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>44</v>
       </c>
@@ -1469,8 +1650,11 @@
       <c r="E48" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>45</v>
       </c>
@@ -1486,8 +1670,11 @@
       <c r="E49" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>46</v>
       </c>
@@ -1503,8 +1690,11 @@
       <c r="E50" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>47</v>
       </c>
@@ -1520,8 +1710,11 @@
       <c r="E51" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>48</v>
       </c>
@@ -1537,8 +1730,11 @@
       <c r="E52" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>49</v>
       </c>
@@ -1554,8 +1750,11 @@
       <c r="E53" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>50</v>
       </c>
@@ -1571,8 +1770,11 @@
       <c r="E54" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>51</v>
       </c>
@@ -1588,8 +1790,11 @@
       <c r="E55" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>52</v>
       </c>
@@ -1605,8 +1810,11 @@
       <c r="E56" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>53</v>
       </c>
@@ -1622,8 +1830,11 @@
       <c r="E57" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>54</v>
       </c>
@@ -1639,8 +1850,11 @@
       <c r="E58" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>55</v>
       </c>
@@ -1653,8 +1867,11 @@
       <c r="E59" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>56</v>
       </c>
@@ -1670,8 +1887,11 @@
       <c r="E60" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>57</v>
       </c>
@@ -1687,8 +1907,11 @@
       <c r="E61" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>58</v>
       </c>
@@ -1704,8 +1927,11 @@
       <c r="E62" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>59</v>
       </c>
@@ -1721,8 +1947,11 @@
       <c r="E63" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>60</v>
       </c>
@@ -1738,8 +1967,11 @@
       <c r="E64" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>61</v>
       </c>
@@ -1755,8 +1987,11 @@
       <c r="E65" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>62</v>
       </c>
@@ -1772,8 +2007,11 @@
       <c r="E66" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>63</v>
       </c>
@@ -1789,8 +2027,11 @@
       <c r="E67" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>64</v>
       </c>
@@ -1806,8 +2047,11 @@
       <c r="E68" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>65</v>
       </c>
@@ -1823,8 +2067,11 @@
       <c r="E69" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>66</v>
       </c>
@@ -1837,8 +2084,11 @@
       <c r="E70" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>67</v>
       </c>
@@ -1854,8 +2104,11 @@
       <c r="E71" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>68</v>
       </c>
@@ -1871,8 +2124,11 @@
       <c r="E72" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F72" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>69</v>
       </c>
@@ -1888,8 +2144,11 @@
       <c r="E73" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F73" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>70</v>
       </c>
@@ -1905,8 +2164,11 @@
       <c r="E74" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F74" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>71</v>
       </c>
@@ -1922,8 +2184,11 @@
       <c r="E75" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F75" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>72</v>
       </c>
@@ -1939,8 +2204,11 @@
       <c r="E76" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F76" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>73</v>
       </c>
@@ -1956,8 +2224,11 @@
       <c r="E77" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>74</v>
       </c>
@@ -1973,8 +2244,11 @@
       <c r="E78" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F78" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>75</v>
       </c>
@@ -1990,8 +2264,11 @@
       <c r="E79" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>76</v>
       </c>
@@ -2007,8 +2284,11 @@
       <c r="E80" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F80" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>77</v>
       </c>
@@ -2021,8 +2301,11 @@
       <c r="E81" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>78</v>
       </c>
@@ -2038,8 +2321,11 @@
       <c r="E82" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F82" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>79</v>
       </c>
@@ -2055,8 +2341,11 @@
       <c r="E83" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F83" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>80</v>
       </c>
@@ -2072,8 +2361,11 @@
       <c r="E84" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F84" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>81</v>
       </c>
@@ -2089,8 +2381,11 @@
       <c r="E85" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F85" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>82</v>
       </c>
@@ -2106,8 +2401,11 @@
       <c r="E86" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F86" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>83</v>
       </c>
@@ -2123,8 +2421,11 @@
       <c r="E87" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F87" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>84</v>
       </c>
@@ -2140,8 +2441,11 @@
       <c r="E88" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F88" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>85</v>
       </c>
@@ -2157,8 +2461,11 @@
       <c r="E89" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F89" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>86</v>
       </c>
@@ -2174,8 +2481,11 @@
       <c r="E90" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F90" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>87</v>
       </c>
@@ -2191,8 +2501,11 @@
       <c r="E91" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F91" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>88</v>
       </c>
@@ -2205,8 +2518,11 @@
       <c r="E92" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F92" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>89</v>
       </c>
@@ -2222,8 +2538,11 @@
       <c r="E93" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F93" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>90</v>
       </c>
@@ -2239,8 +2558,11 @@
       <c r="E94" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F94" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>91</v>
       </c>
@@ -2256,8 +2578,11 @@
       <c r="E95" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F95" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>92</v>
       </c>
@@ -2273,8 +2598,11 @@
       <c r="E96" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F96" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>93</v>
       </c>
@@ -2290,8 +2618,11 @@
       <c r="E97" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F97" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>94</v>
       </c>
@@ -2307,8 +2638,11 @@
       <c r="E98" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F98" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>95</v>
       </c>
@@ -2324,8 +2658,11 @@
       <c r="E99" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F99" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>96</v>
       </c>
@@ -2341,8 +2678,11 @@
       <c r="E100" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F100" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>97</v>
       </c>
@@ -2358,8 +2698,11 @@
       <c r="E101" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F101" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>98</v>
       </c>
@@ -2375,8 +2718,11 @@
       <c r="E102" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F102" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>99</v>
       </c>
@@ -2389,8 +2735,11 @@
       <c r="E103" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F103" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>100</v>
       </c>
@@ -2406,8 +2755,11 @@
       <c r="E104" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F104" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>101</v>
       </c>
@@ -2423,8 +2775,11 @@
       <c r="E105" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F105" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>102</v>
       </c>
@@ -2440,8 +2795,11 @@
       <c r="E106" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F106" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>103</v>
       </c>
@@ -2457,8 +2815,11 @@
       <c r="E107" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F107" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>104</v>
       </c>
@@ -2474,8 +2835,11 @@
       <c r="E108" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F108" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>105</v>
       </c>
@@ -2491,8 +2855,11 @@
       <c r="E109" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F109" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>106</v>
       </c>
@@ -2508,8 +2875,11 @@
       <c r="E110" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F110" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>107</v>
       </c>
@@ -2525,8 +2895,11 @@
       <c r="E111" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F111" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>108</v>
       </c>
@@ -2542,8 +2915,11 @@
       <c r="E112" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F112" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>109</v>
       </c>
@@ -2559,8 +2935,11 @@
       <c r="E113" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F113" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>110</v>
       </c>
@@ -2573,8 +2952,11 @@
       <c r="E114" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F114" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <v>111</v>
       </c>
@@ -2590,8 +2972,11 @@
       <c r="E115" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F115" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>112</v>
       </c>
@@ -2607,8 +2992,11 @@
       <c r="E116" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F116" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>113</v>
       </c>
@@ -2624,8 +3012,11 @@
       <c r="E117" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F117" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>114</v>
       </c>
@@ -2641,8 +3032,11 @@
       <c r="E118" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F118" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>115</v>
       </c>
@@ -2658,8 +3052,11 @@
       <c r="E119" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F119" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>116</v>
       </c>
@@ -2675,8 +3072,11 @@
       <c r="E120" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F120" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <v>117</v>
       </c>
@@ -2692,8 +3092,11 @@
       <c r="E121" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F121" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>118</v>
       </c>
@@ -2709,8 +3112,11 @@
       <c r="E122" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F122" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <v>119</v>
       </c>
@@ -2726,8 +3132,11 @@
       <c r="E123" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F123" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>120</v>
       </c>
@@ -2743,8 +3152,11 @@
       <c r="E124" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F124" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>121</v>
       </c>
@@ -2757,8 +3169,11 @@
       <c r="E125" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F125" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>122</v>
       </c>
@@ -2774,8 +3189,11 @@
       <c r="E126" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F126" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>123</v>
       </c>
@@ -2791,8 +3209,11 @@
       <c r="E127" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F127" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <v>124</v>
       </c>
@@ -2808,8 +3229,11 @@
       <c r="E128" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F128" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <v>125</v>
       </c>
@@ -2825,8 +3249,11 @@
       <c r="E129" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F129" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <v>126</v>
       </c>
@@ -2842,8 +3269,11 @@
       <c r="E130" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F130" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>127</v>
       </c>
@@ -2859,8 +3289,11 @@
       <c r="E131" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F131" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <v>128</v>
       </c>
@@ -2876,8 +3309,11 @@
       <c r="E132" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F132" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>129</v>
       </c>
@@ -2893,8 +3329,11 @@
       <c r="E133" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F133" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
         <v>130</v>
       </c>
@@ -2910,8 +3349,11 @@
       <c r="E134" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F134" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>131</v>
       </c>
@@ -2927,8 +3369,11 @@
       <c r="E135" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F135" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
         <v>132</v>
       </c>
@@ -2941,8 +3386,11 @@
       <c r="E136" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F136" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>133</v>
       </c>
@@ -2958,8 +3406,11 @@
       <c r="E137" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F137" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <v>134</v>
       </c>
@@ -2975,8 +3426,11 @@
       <c r="E138" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F138" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
         <v>135</v>
       </c>
@@ -2992,8 +3446,11 @@
       <c r="E139" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F139" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <v>136</v>
       </c>
@@ -3009,8 +3466,11 @@
       <c r="E140" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F140" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
         <v>137</v>
       </c>
@@ -3026,8 +3486,11 @@
       <c r="E141" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F141" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>138</v>
       </c>
@@ -3043,8 +3506,11 @@
       <c r="E142" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F142" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>139</v>
       </c>
@@ -3060,8 +3526,11 @@
       <c r="E143" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F143" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>140</v>
       </c>
@@ -3077,8 +3546,11 @@
       <c r="E144" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F144" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>141</v>
       </c>
@@ -3094,8 +3566,11 @@
       <c r="E145" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F145" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>142</v>
       </c>
@@ -3111,8 +3586,11 @@
       <c r="E146" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F146" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
         <v>143</v>
       </c>
@@ -3125,8 +3603,11 @@
       <c r="E147" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F147" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
         <v>144</v>
       </c>
@@ -3142,8 +3623,11 @@
       <c r="E148" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F148" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
         <v>145</v>
       </c>
@@ -3159,8 +3643,11 @@
       <c r="E149" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F149" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>146</v>
       </c>
@@ -3176,8 +3663,11 @@
       <c r="E150" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F150" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
         <v>147</v>
       </c>
@@ -3193,8 +3683,11 @@
       <c r="E151" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F151" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
         <v>148</v>
       </c>
@@ -3210,8 +3703,11 @@
       <c r="E152" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F152" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
         <v>149</v>
       </c>
@@ -3227,8 +3723,11 @@
       <c r="E153" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F153" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
         <v>150</v>
       </c>
@@ -3244,8 +3743,11 @@
       <c r="E154" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F154" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
         <v>151</v>
       </c>
@@ -3261,8 +3763,11 @@
       <c r="E155" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F155" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
         <v>152</v>
       </c>
@@ -3278,8 +3783,11 @@
       <c r="E156" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F156" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
         <v>153</v>
       </c>
@@ -3295,8 +3803,11 @@
       <c r="E157" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F157" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
         <v>154</v>
       </c>
@@ -3309,8 +3820,11 @@
       <c r="E158" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F158" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
         <v>155</v>
       </c>
@@ -3326,8 +3840,11 @@
       <c r="E159" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F159" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
         <v>156</v>
       </c>
@@ -3343,8 +3860,11 @@
       <c r="E160" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F160" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
         <v>157</v>
       </c>
@@ -3360,8 +3880,11 @@
       <c r="E161" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F161" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
         <v>158</v>
       </c>
@@ -3377,8 +3900,11 @@
       <c r="E162" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F162" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
         <v>159</v>
       </c>
@@ -3394,8 +3920,11 @@
       <c r="E163" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F163" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
         <v>160</v>
       </c>
@@ -3411,8 +3940,11 @@
       <c r="E164" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F164" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
         <v>161</v>
       </c>
@@ -3428,8 +3960,11 @@
       <c r="E165" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F165" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
         <v>162</v>
       </c>
@@ -3445,8 +3980,11 @@
       <c r="E166" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F166" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
         <v>163</v>
       </c>
@@ -3462,8 +4000,11 @@
       <c r="E167" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F167" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
         <v>164</v>
       </c>
@@ -3479,8 +4020,11 @@
       <c r="E168" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F168" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
         <v>165</v>
       </c>
@@ -3493,29 +4037,32 @@
       <c r="E169" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F169" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="4"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">

--- a/docs/excel/PalacePart.xlsx
+++ b/docs/excel/PalacePart.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="84">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -274,6 +274,57 @@
   </si>
   <si>
     <t>地毯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PartPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Palace/image_build0</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Palace/image_build0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Palace/image_build1</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Palace/image_build1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Palace/image_build2</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Palace/image_build2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Palace/image_build3</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Palace/image_build3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Palace/image_build3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Palace/image_build4</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Palace/image_build4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Palace/image_build4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -700,7 +751,7 @@
   <dimension ref="A1:M305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F115" sqref="F115:F169"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -711,7 +762,7 @@
     <col min="4" max="4" width="14.59765625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.59765625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.296875" customWidth="1"/>
-    <col min="7" max="7" width="8.796875" style="4"/>
+    <col min="7" max="7" width="34.296875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" style="4" customWidth="1"/>
     <col min="9" max="10" width="8.796875" style="4"/>
     <col min="14" max="16384" width="8.796875" style="4"/>
@@ -736,6 +787,9 @@
       <c r="F1" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="G1" s="4" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -756,6 +810,9 @@
       <c r="F2" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="G2" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -784,6 +841,9 @@
       <c r="F4" s="6" t="s">
         <v>64</v>
       </c>
+      <c r="G4" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
@@ -804,7 +864,9 @@
       <c r="F5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
@@ -825,6 +887,9 @@
       <c r="F6" s="6" t="s">
         <v>65</v>
       </c>
+      <c r="G6" s="4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
@@ -845,6 +910,9 @@
       <c r="F7" s="6" t="s">
         <v>65</v>
       </c>
+      <c r="G7" s="4" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
@@ -865,6 +933,9 @@
       <c r="F8" s="6" t="s">
         <v>65</v>
       </c>
+      <c r="G8" s="4" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
@@ -885,6 +956,9 @@
       <c r="F9" s="6" t="s">
         <v>65</v>
       </c>
+      <c r="G9" s="4" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
@@ -905,6 +979,9 @@
       <c r="F10" s="6" t="s">
         <v>65</v>
       </c>
+      <c r="G10" s="4" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
@@ -925,6 +1002,9 @@
       <c r="F11" s="6" t="s">
         <v>65</v>
       </c>
+      <c r="G11" s="4" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
@@ -945,6 +1025,9 @@
       <c r="F12" s="6" t="s">
         <v>65</v>
       </c>
+      <c r="G12" s="4" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
@@ -965,6 +1048,9 @@
       <c r="F13" s="6" t="s">
         <v>65</v>
       </c>
+      <c r="G13" s="4" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -985,6 +1071,9 @@
       <c r="F14" s="6" t="s">
         <v>65</v>
       </c>
+      <c r="G14" s="4" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
@@ -1002,6 +1091,9 @@
       <c r="F15" s="6" t="s">
         <v>65</v>
       </c>
+      <c r="G15" s="4" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
@@ -1022,8 +1114,11 @@
       <c r="F16" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>13</v>
       </c>
@@ -1042,8 +1137,11 @@
       <c r="F17" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>14</v>
       </c>
@@ -1062,8 +1160,11 @@
       <c r="F18" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>15</v>
       </c>
@@ -1082,8 +1183,11 @@
       <c r="F19" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>16</v>
       </c>
@@ -1102,8 +1206,11 @@
       <c r="F20" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>17</v>
       </c>
@@ -1122,8 +1229,11 @@
       <c r="F21" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>18</v>
       </c>
@@ -1142,8 +1252,11 @@
       <c r="F22" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>19</v>
       </c>
@@ -1162,8 +1275,11 @@
       <c r="F23" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>20</v>
       </c>
@@ -1182,8 +1298,11 @@
       <c r="F24" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>21</v>
       </c>
@@ -1202,8 +1321,11 @@
       <c r="F25" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>22</v>
       </c>
@@ -1219,8 +1341,11 @@
       <c r="F26" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>23</v>
       </c>
@@ -1239,8 +1364,11 @@
       <c r="F27" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>24</v>
       </c>
@@ -1259,8 +1387,11 @@
       <c r="F28" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>25</v>
       </c>
@@ -1279,8 +1410,11 @@
       <c r="F29" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>26</v>
       </c>
@@ -1299,8 +1433,11 @@
       <c r="F30" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>27</v>
       </c>
@@ -1319,8 +1456,11 @@
       <c r="F31" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>28</v>
       </c>
@@ -1339,8 +1479,11 @@
       <c r="F32" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>29</v>
       </c>
@@ -1359,8 +1502,11 @@
       <c r="F33" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>30</v>
       </c>
@@ -1379,8 +1525,11 @@
       <c r="F34" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>31</v>
       </c>
@@ -1399,8 +1548,11 @@
       <c r="F35" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>32</v>
       </c>
@@ -1419,8 +1571,11 @@
       <c r="F36" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>33</v>
       </c>
@@ -1436,8 +1591,11 @@
       <c r="F37" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>34</v>
       </c>
@@ -1456,8 +1614,11 @@
       <c r="F38" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>35</v>
       </c>
@@ -1476,8 +1637,11 @@
       <c r="F39" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>36</v>
       </c>
@@ -1496,8 +1660,11 @@
       <c r="F40" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>37</v>
       </c>
@@ -1516,8 +1683,11 @@
       <c r="F41" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>38</v>
       </c>
@@ -1536,8 +1706,11 @@
       <c r="F42" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>39</v>
       </c>
@@ -1556,8 +1729,11 @@
       <c r="F43" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>40</v>
       </c>
@@ -1576,8 +1752,11 @@
       <c r="F44" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>41</v>
       </c>
@@ -1596,8 +1775,11 @@
       <c r="F45" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>42</v>
       </c>
@@ -1616,8 +1798,11 @@
       <c r="F46" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>43</v>
       </c>
@@ -1636,8 +1821,11 @@
       <c r="F47" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>44</v>
       </c>
@@ -1653,8 +1841,11 @@
       <c r="F48" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>45</v>
       </c>
@@ -1673,8 +1864,11 @@
       <c r="F49" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>46</v>
       </c>
@@ -1693,8 +1887,11 @@
       <c r="F50" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>47</v>
       </c>
@@ -1713,8 +1910,11 @@
       <c r="F51" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>48</v>
       </c>
@@ -1733,8 +1933,11 @@
       <c r="F52" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>49</v>
       </c>
@@ -1753,8 +1956,11 @@
       <c r="F53" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>50</v>
       </c>
@@ -1773,8 +1979,11 @@
       <c r="F54" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>51</v>
       </c>
@@ -1793,8 +2002,11 @@
       <c r="F55" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>52</v>
       </c>
@@ -1813,8 +2025,11 @@
       <c r="F56" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>53</v>
       </c>
@@ -1833,8 +2048,11 @@
       <c r="F57" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>54</v>
       </c>
@@ -1853,8 +2071,11 @@
       <c r="F58" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>55</v>
       </c>
@@ -1870,8 +2091,11 @@
       <c r="F59" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>56</v>
       </c>
@@ -1890,8 +2114,11 @@
       <c r="F60" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>57</v>
       </c>
@@ -1910,8 +2137,11 @@
       <c r="F61" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>58</v>
       </c>
@@ -1930,8 +2160,11 @@
       <c r="F62" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>59</v>
       </c>
@@ -1950,8 +2183,11 @@
       <c r="F63" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>60</v>
       </c>
@@ -1970,8 +2206,11 @@
       <c r="F64" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>61</v>
       </c>
@@ -1990,8 +2229,11 @@
       <c r="F65" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>62</v>
       </c>
@@ -2010,8 +2252,11 @@
       <c r="F66" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>63</v>
       </c>
@@ -2030,8 +2275,11 @@
       <c r="F67" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>64</v>
       </c>
@@ -2050,8 +2298,11 @@
       <c r="F68" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>65</v>
       </c>
@@ -2070,8 +2321,11 @@
       <c r="F69" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>66</v>
       </c>
@@ -2087,8 +2341,11 @@
       <c r="F70" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>67</v>
       </c>
@@ -2107,8 +2364,11 @@
       <c r="F71" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>68</v>
       </c>
@@ -2127,8 +2387,11 @@
       <c r="F72" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>69</v>
       </c>
@@ -2147,8 +2410,11 @@
       <c r="F73" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>70</v>
       </c>
@@ -2167,8 +2433,11 @@
       <c r="F74" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>71</v>
       </c>
@@ -2187,8 +2456,11 @@
       <c r="F75" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>72</v>
       </c>
@@ -2207,8 +2479,11 @@
       <c r="F76" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>73</v>
       </c>
@@ -2227,8 +2502,11 @@
       <c r="F77" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>74</v>
       </c>
@@ -2247,8 +2525,11 @@
       <c r="F78" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>75</v>
       </c>
@@ -2267,8 +2548,11 @@
       <c r="F79" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>76</v>
       </c>
@@ -2287,8 +2571,11 @@
       <c r="F80" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>77</v>
       </c>
@@ -2304,8 +2591,11 @@
       <c r="F81" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>78</v>
       </c>
@@ -2324,8 +2614,11 @@
       <c r="F82" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>79</v>
       </c>
@@ -2344,8 +2637,11 @@
       <c r="F83" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>80</v>
       </c>
@@ -2364,8 +2660,11 @@
       <c r="F84" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>81</v>
       </c>
@@ -2384,8 +2683,11 @@
       <c r="F85" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>82</v>
       </c>
@@ -2404,8 +2706,11 @@
       <c r="F86" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>83</v>
       </c>
@@ -2424,8 +2729,11 @@
       <c r="F87" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>84</v>
       </c>
@@ -2444,8 +2752,11 @@
       <c r="F88" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>85</v>
       </c>
@@ -2464,8 +2775,11 @@
       <c r="F89" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>86</v>
       </c>
@@ -2484,8 +2798,11 @@
       <c r="F90" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G90" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>87</v>
       </c>
@@ -2504,8 +2821,11 @@
       <c r="F91" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>88</v>
       </c>
@@ -2521,8 +2841,11 @@
       <c r="F92" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G92" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>89</v>
       </c>
@@ -2541,8 +2864,11 @@
       <c r="F93" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G93" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>90</v>
       </c>
@@ -2561,8 +2887,11 @@
       <c r="F94" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G94" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>91</v>
       </c>
@@ -2581,8 +2910,11 @@
       <c r="F95" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>92</v>
       </c>
@@ -2601,8 +2933,11 @@
       <c r="F96" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G96" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>93</v>
       </c>
@@ -2621,8 +2956,11 @@
       <c r="F97" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>94</v>
       </c>
@@ -2641,8 +2979,11 @@
       <c r="F98" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G98" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>95</v>
       </c>
@@ -2661,8 +3002,11 @@
       <c r="F99" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G99" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>96</v>
       </c>
@@ -2681,8 +3025,11 @@
       <c r="F100" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G100" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>97</v>
       </c>
@@ -2701,8 +3048,11 @@
       <c r="F101" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G101" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>98</v>
       </c>
@@ -2721,8 +3071,11 @@
       <c r="F102" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G102" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>99</v>
       </c>
@@ -2738,8 +3091,11 @@
       <c r="F103" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G103" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>100</v>
       </c>
@@ -2758,8 +3114,11 @@
       <c r="F104" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G104" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>101</v>
       </c>
@@ -2778,8 +3137,11 @@
       <c r="F105" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G105" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>102</v>
       </c>
@@ -2798,8 +3160,11 @@
       <c r="F106" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G106" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>103</v>
       </c>
@@ -2818,8 +3183,11 @@
       <c r="F107" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G107" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>104</v>
       </c>
@@ -2838,8 +3206,11 @@
       <c r="F108" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G108" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>105</v>
       </c>
@@ -2858,8 +3229,11 @@
       <c r="F109" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G109" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>106</v>
       </c>
@@ -2878,8 +3252,11 @@
       <c r="F110" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G110" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>107</v>
       </c>
@@ -2898,8 +3275,11 @@
       <c r="F111" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G111" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>108</v>
       </c>
@@ -2918,8 +3298,11 @@
       <c r="F112" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G112" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>109</v>
       </c>
@@ -2938,8 +3321,11 @@
       <c r="F113" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G113" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>110</v>
       </c>
@@ -2955,8 +3341,11 @@
       <c r="F114" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G114" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <v>111</v>
       </c>
@@ -2975,8 +3364,11 @@
       <c r="F115" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G115" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>112</v>
       </c>
@@ -2995,8 +3387,11 @@
       <c r="F116" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G116" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>113</v>
       </c>
@@ -3015,8 +3410,11 @@
       <c r="F117" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G117" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>114</v>
       </c>
@@ -3035,8 +3433,11 @@
       <c r="F118" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G118" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>115</v>
       </c>
@@ -3055,8 +3456,11 @@
       <c r="F119" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G119" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>116</v>
       </c>
@@ -3075,8 +3479,11 @@
       <c r="F120" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G120" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <v>117</v>
       </c>
@@ -3095,8 +3502,11 @@
       <c r="F121" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G121" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>118</v>
       </c>
@@ -3115,8 +3525,11 @@
       <c r="F122" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G122" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <v>119</v>
       </c>
@@ -3135,8 +3548,11 @@
       <c r="F123" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G123" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>120</v>
       </c>
@@ -3155,8 +3571,11 @@
       <c r="F124" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G124" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>121</v>
       </c>
@@ -3172,8 +3591,11 @@
       <c r="F125" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G125" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>122</v>
       </c>
@@ -3192,8 +3614,11 @@
       <c r="F126" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G126" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>123</v>
       </c>
@@ -3212,8 +3637,11 @@
       <c r="F127" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G127" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <v>124</v>
       </c>
@@ -3232,8 +3660,11 @@
       <c r="F128" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G128" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <v>125</v>
       </c>
@@ -3252,8 +3683,11 @@
       <c r="F129" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G129" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <v>126</v>
       </c>
@@ -3272,8 +3706,11 @@
       <c r="F130" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G130" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>127</v>
       </c>
@@ -3292,8 +3729,11 @@
       <c r="F131" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G131" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <v>128</v>
       </c>
@@ -3312,8 +3752,11 @@
       <c r="F132" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G132" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>129</v>
       </c>
@@ -3332,8 +3775,11 @@
       <c r="F133" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G133" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
         <v>130</v>
       </c>
@@ -3352,8 +3798,11 @@
       <c r="F134" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G134" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>131</v>
       </c>
@@ -3372,8 +3821,11 @@
       <c r="F135" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G135" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
         <v>132</v>
       </c>
@@ -3389,8 +3841,11 @@
       <c r="F136" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G136" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>133</v>
       </c>
@@ -3409,8 +3864,11 @@
       <c r="F137" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G137" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <v>134</v>
       </c>
@@ -3429,8 +3887,11 @@
       <c r="F138" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G138" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
         <v>135</v>
       </c>
@@ -3449,8 +3910,11 @@
       <c r="F139" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G139" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <v>136</v>
       </c>
@@ -3469,8 +3933,11 @@
       <c r="F140" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G140" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
         <v>137</v>
       </c>
@@ -3489,8 +3956,11 @@
       <c r="F141" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G141" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>138</v>
       </c>
@@ -3509,8 +3979,11 @@
       <c r="F142" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G142" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>139</v>
       </c>
@@ -3529,8 +4002,11 @@
       <c r="F143" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G143" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>140</v>
       </c>
@@ -3549,8 +4025,11 @@
       <c r="F144" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G144" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>141</v>
       </c>
@@ -3569,8 +4048,11 @@
       <c r="F145" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G145" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>142</v>
       </c>
@@ -3589,8 +4071,11 @@
       <c r="F146" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G146" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
         <v>143</v>
       </c>
@@ -3606,8 +4091,11 @@
       <c r="F147" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G147" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
         <v>144</v>
       </c>
@@ -3626,8 +4114,11 @@
       <c r="F148" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G148" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
         <v>145</v>
       </c>
@@ -3646,8 +4137,11 @@
       <c r="F149" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G149" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>146</v>
       </c>
@@ -3666,8 +4160,11 @@
       <c r="F150" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G150" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
         <v>147</v>
       </c>
@@ -3686,8 +4183,11 @@
       <c r="F151" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G151" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
         <v>148</v>
       </c>
@@ -3706,8 +4206,11 @@
       <c r="F152" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G152" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
         <v>149</v>
       </c>
@@ -3726,8 +4229,11 @@
       <c r="F153" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G153" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
         <v>150</v>
       </c>
@@ -3746,8 +4252,11 @@
       <c r="F154" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G154" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
         <v>151</v>
       </c>
@@ -3766,8 +4275,11 @@
       <c r="F155" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G155" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
         <v>152</v>
       </c>
@@ -3786,8 +4298,11 @@
       <c r="F156" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G156" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
         <v>153</v>
       </c>
@@ -3806,8 +4321,11 @@
       <c r="F157" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G157" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
         <v>154</v>
       </c>
@@ -3823,8 +4341,11 @@
       <c r="F158" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G158" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
         <v>155</v>
       </c>
@@ -3843,8 +4364,11 @@
       <c r="F159" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G159" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
         <v>156</v>
       </c>
@@ -3863,8 +4387,11 @@
       <c r="F160" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G160" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
         <v>157</v>
       </c>
@@ -3883,8 +4410,11 @@
       <c r="F161" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G161" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
         <v>158</v>
       </c>
@@ -3903,8 +4433,11 @@
       <c r="F162" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G162" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
         <v>159</v>
       </c>
@@ -3923,8 +4456,11 @@
       <c r="F163" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G163" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
         <v>160</v>
       </c>
@@ -3943,8 +4479,11 @@
       <c r="F164" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G164" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
         <v>161</v>
       </c>
@@ -3963,8 +4502,11 @@
       <c r="F165" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G165" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
         <v>162</v>
       </c>
@@ -3983,8 +4525,11 @@
       <c r="F166" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G166" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
         <v>163</v>
       </c>
@@ -4003,8 +4548,11 @@
       <c r="F167" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G167" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
         <v>164</v>
       </c>
@@ -4023,8 +4571,11 @@
       <c r="F168" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G168" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
         <v>165</v>
       </c>
@@ -4040,29 +4591,32 @@
       <c r="F169" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G169" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="4"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">

--- a/docs/excel/PalacePart.xlsx
+++ b/docs/excel/PalacePart.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="85">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -125,126 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1_1000,0_999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_1500,0_999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_1000,0_1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_1500,0_1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_1000,0_1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_1500,0_1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_1000,0_1002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_1500,0_1002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_1000,0_1003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_1500,0_1003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_1000,1_999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_1500,1_999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_1000,1_1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_1500,1_1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_1000,1_1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_1500,1_1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_1000,1_1002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_1500,1_1002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_1000,1_1003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_1500,1_1003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_1000,2_999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_1500,2_999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_1000,2_1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_1500,2_1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_1000,2_1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_1500,2_1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_1000,2_1002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_1500,2_1002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_1000,2_1003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_1500,2_1003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PartName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -325,6 +205,130 @@
   </si>
   <si>
     <t>Image/GameScene/Palace/image_build4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_60,0_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_100,0_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_120,0_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_150,0_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_200,0_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_30,0_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_800,0_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1500,0_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_5500,0_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_8900,0_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_30,1_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_60,1_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_100,1_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_120,1_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_150,1_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_200,1_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_800,1_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_1500,1_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_5500,1_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_8900,1_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_30,2_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_60,2_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_100,2_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_120,2_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_150,2_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_200,2_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_800,2_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_1500,2_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_5500,2_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_8900,2_0000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -361,7 +365,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -372,6 +376,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF9BBB59"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -392,7 +402,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -407,6 +417,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -751,7 +767,7 @@
   <dimension ref="A1:M305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -764,11 +780,12 @@
     <col min="6" max="6" width="10.296875" customWidth="1"/>
     <col min="7" max="7" width="34.296875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" style="4" customWidth="1"/>
-    <col min="9" max="10" width="8.796875" style="4"/>
+    <col min="9" max="9" width="14.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.796875" style="4"/>
     <col min="14" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -785,13 +802,16 @@
         <v>29</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -808,13 +828,13 @@
         <v>21</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -822,7 +842,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -839,13 +859,13 @@
         <v>30</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -855,20 +875,21 @@
       <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>32</v>
+      <c r="D5" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -878,20 +899,21 @@
       <c r="C6" s="4">
         <v>2</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>33</v>
+      <c r="D6" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="E6" s="4">
         <v>2</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -901,20 +923,21 @@
       <c r="C7" s="4">
         <v>3</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>34</v>
+      <c r="D7" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="E7" s="4">
         <v>4</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -924,20 +947,21 @@
       <c r="C8" s="4">
         <v>4</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>35</v>
+      <c r="D8" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="E8" s="4">
         <v>6</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -947,20 +971,21 @@
       <c r="C9" s="4">
         <v>5</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>36</v>
+      <c r="D9" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E9" s="4">
         <v>8</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -970,20 +995,21 @@
       <c r="C10" s="4">
         <v>6</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>37</v>
+      <c r="D10" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="E10" s="4">
         <v>10</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -993,20 +1019,21 @@
       <c r="C11" s="4">
         <v>7</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>38</v>
+      <c r="D11" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="E11" s="4">
         <v>12</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>8</v>
       </c>
@@ -1016,20 +1043,21 @@
       <c r="C12" s="4">
         <v>8</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>39</v>
+      <c r="D12" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="E12" s="4">
         <v>14</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>9</v>
       </c>
@@ -1039,20 +1067,21 @@
       <c r="C13" s="4">
         <v>9</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>40</v>
+      <c r="D13" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="E13" s="4">
         <v>16</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>10</v>
       </c>
@@ -1062,20 +1091,21 @@
       <c r="C14" s="4">
         <v>10</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>41</v>
+      <c r="D14" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="E14" s="4">
         <v>18</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>11</v>
       </c>
@@ -1089,13 +1119,14 @@
         <v>20</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>12</v>
       </c>
@@ -1105,20 +1136,21 @@
       <c r="C16" s="4">
         <v>1</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>32</v>
+      <c r="D16" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="E16" s="4">
         <v>0</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>13</v>
       </c>
@@ -1128,20 +1160,21 @@
       <c r="C17" s="4">
         <v>2</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>33</v>
+      <c r="D17" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="E17" s="4">
         <v>2</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>14</v>
       </c>
@@ -1151,20 +1184,21 @@
       <c r="C18" s="4">
         <v>3</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>34</v>
+      <c r="D18" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="E18" s="4">
         <v>4</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>15</v>
       </c>
@@ -1174,20 +1208,21 @@
       <c r="C19" s="4">
         <v>4</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>35</v>
+      <c r="D19" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="E19" s="4">
         <v>6</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>16</v>
       </c>
@@ -1197,20 +1232,21 @@
       <c r="C20" s="4">
         <v>5</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>36</v>
+      <c r="D20" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E20" s="4">
         <v>8</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>17</v>
       </c>
@@ -1220,20 +1256,21 @@
       <c r="C21" s="4">
         <v>6</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>37</v>
+      <c r="D21" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="E21" s="4">
         <v>10</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>18</v>
       </c>
@@ -1243,20 +1280,21 @@
       <c r="C22" s="4">
         <v>7</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>38</v>
+      <c r="D22" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="E22" s="4">
         <v>12</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>19</v>
       </c>
@@ -1266,20 +1304,20 @@
       <c r="C23" s="4">
         <v>8</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>39</v>
+      <c r="D23" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="E23" s="4">
         <v>14</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>20</v>
       </c>
@@ -1289,20 +1327,20 @@
       <c r="C24" s="4">
         <v>9</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>40</v>
+      <c r="D24" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="E24" s="4">
         <v>16</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>21</v>
       </c>
@@ -1312,20 +1350,20 @@
       <c r="C25" s="4">
         <v>10</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>41</v>
+      <c r="D25" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="E25" s="4">
         <v>18</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>22</v>
       </c>
@@ -1339,13 +1377,13 @@
         <v>20</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>23</v>
       </c>
@@ -1355,20 +1393,20 @@
       <c r="C27" s="4">
         <v>1</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>32</v>
+      <c r="D27" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="E27" s="4">
         <v>0</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>24</v>
       </c>
@@ -1378,20 +1416,20 @@
       <c r="C28" s="4">
         <v>2</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>33</v>
+      <c r="D28" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="E28" s="4">
         <v>2</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>25</v>
       </c>
@@ -1401,20 +1439,20 @@
       <c r="C29" s="4">
         <v>3</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>34</v>
+      <c r="D29" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="E29" s="4">
         <v>4</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>26</v>
       </c>
@@ -1424,20 +1462,20 @@
       <c r="C30" s="4">
         <v>4</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>35</v>
+      <c r="D30" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="E30" s="4">
         <v>6</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>27</v>
       </c>
@@ -1447,20 +1485,20 @@
       <c r="C31" s="4">
         <v>5</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>36</v>
+      <c r="D31" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E31" s="4">
         <v>8</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>28</v>
       </c>
@@ -1470,17 +1508,17 @@
       <c r="C32" s="4">
         <v>6</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>37</v>
+      <c r="D32" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="E32" s="4">
         <v>10</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1493,17 +1531,17 @@
       <c r="C33" s="4">
         <v>7</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>38</v>
+      <c r="D33" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="E33" s="4">
         <v>12</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1516,17 +1554,17 @@
       <c r="C34" s="4">
         <v>8</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>39</v>
+      <c r="D34" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="E34" s="4">
         <v>14</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -1539,17 +1577,17 @@
       <c r="C35" s="4">
         <v>9</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>40</v>
+      <c r="D35" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="E35" s="4">
         <v>16</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -1562,17 +1600,17 @@
       <c r="C36" s="4">
         <v>10</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>41</v>
+      <c r="D36" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="E36" s="4">
         <v>18</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1589,10 +1627,10 @@
         <v>20</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -1605,17 +1643,17 @@
       <c r="C38" s="4">
         <v>1</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>32</v>
+      <c r="D38" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="E38" s="4">
         <v>0</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -1628,17 +1666,17 @@
       <c r="C39" s="4">
         <v>2</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>33</v>
+      <c r="D39" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="E39" s="4">
         <v>2</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -1651,17 +1689,17 @@
       <c r="C40" s="4">
         <v>3</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>34</v>
+      <c r="D40" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="E40" s="4">
         <v>4</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -1674,17 +1712,17 @@
       <c r="C41" s="4">
         <v>4</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>35</v>
+      <c r="D41" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="E41" s="4">
         <v>6</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -1697,17 +1735,17 @@
       <c r="C42" s="4">
         <v>5</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>36</v>
+      <c r="D42" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E42" s="4">
         <v>8</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -1720,17 +1758,17 @@
       <c r="C43" s="4">
         <v>6</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>37</v>
+      <c r="D43" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="E43" s="4">
         <v>10</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -1743,17 +1781,17 @@
       <c r="C44" s="4">
         <v>7</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>38</v>
+      <c r="D44" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="E44" s="4">
         <v>12</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -1766,17 +1804,17 @@
       <c r="C45" s="4">
         <v>8</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>39</v>
+      <c r="D45" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="E45" s="4">
         <v>14</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -1789,17 +1827,17 @@
       <c r="C46" s="4">
         <v>9</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>40</v>
+      <c r="D46" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="E46" s="4">
         <v>16</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -1812,17 +1850,17 @@
       <c r="C47" s="4">
         <v>10</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>41</v>
+      <c r="D47" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="E47" s="4">
         <v>18</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -1839,10 +1877,10 @@
         <v>20</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -1855,17 +1893,17 @@
       <c r="C49" s="4">
         <v>1</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>32</v>
+      <c r="D49" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="E49" s="4">
         <v>0</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -1878,17 +1916,17 @@
       <c r="C50" s="4">
         <v>2</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>33</v>
+      <c r="D50" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="E50" s="4">
         <v>2</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -1901,17 +1939,17 @@
       <c r="C51" s="4">
         <v>3</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>34</v>
+      <c r="D51" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="E51" s="4">
         <v>4</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -1924,17 +1962,17 @@
       <c r="C52" s="4">
         <v>4</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>35</v>
+      <c r="D52" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="E52" s="4">
         <v>6</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -1947,17 +1985,17 @@
       <c r="C53" s="4">
         <v>5</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>36</v>
+      <c r="D53" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E53" s="4">
         <v>8</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -1970,17 +2008,17 @@
       <c r="C54" s="4">
         <v>6</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>37</v>
+      <c r="D54" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="E54" s="4">
         <v>10</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -1993,17 +2031,17 @@
       <c r="C55" s="4">
         <v>7</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>38</v>
+      <c r="D55" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="E55" s="4">
         <v>12</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -2016,17 +2054,17 @@
       <c r="C56" s="4">
         <v>8</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>39</v>
+      <c r="D56" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="E56" s="4">
         <v>14</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -2039,17 +2077,17 @@
       <c r="C57" s="4">
         <v>9</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>40</v>
+      <c r="D57" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="E57" s="4">
         <v>16</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -2062,17 +2100,17 @@
       <c r="C58" s="4">
         <v>10</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>41</v>
+      <c r="D58" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="E58" s="4">
         <v>18</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -2089,10 +2127,10 @@
         <v>20</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -2105,17 +2143,17 @@
       <c r="C60" s="4">
         <v>1</v>
       </c>
-      <c r="D60" s="4" t="s">
-        <v>42</v>
+      <c r="D60" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="E60" s="4">
         <v>0</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -2128,17 +2166,17 @@
       <c r="C61" s="4">
         <v>2</v>
       </c>
-      <c r="D61" s="4" t="s">
-        <v>43</v>
+      <c r="D61" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="E61" s="4">
         <v>2</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -2151,17 +2189,17 @@
       <c r="C62" s="4">
         <v>3</v>
       </c>
-      <c r="D62" s="4" t="s">
-        <v>44</v>
+      <c r="D62" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="E62" s="4">
         <v>4</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -2174,17 +2212,17 @@
       <c r="C63" s="4">
         <v>4</v>
       </c>
-      <c r="D63" s="4" t="s">
-        <v>45</v>
+      <c r="D63" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="E63" s="4">
         <v>6</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -2197,17 +2235,17 @@
       <c r="C64" s="4">
         <v>5</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>46</v>
+      <c r="D64" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="E64" s="4">
         <v>8</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -2220,17 +2258,17 @@
       <c r="C65" s="4">
         <v>6</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>47</v>
+      <c r="D65" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="E65" s="4">
         <v>10</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -2243,17 +2281,17 @@
       <c r="C66" s="4">
         <v>7</v>
       </c>
-      <c r="D66" s="4" t="s">
-        <v>48</v>
+      <c r="D66" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="E66" s="4">
         <v>12</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -2266,17 +2304,17 @@
       <c r="C67" s="4">
         <v>8</v>
       </c>
-      <c r="D67" s="4" t="s">
-        <v>49</v>
+      <c r="D67" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="E67" s="4">
         <v>14</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -2289,17 +2327,17 @@
       <c r="C68" s="4">
         <v>9</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>50</v>
+      <c r="D68" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="E68" s="4">
         <v>16</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -2312,17 +2350,17 @@
       <c r="C69" s="4">
         <v>10</v>
       </c>
-      <c r="D69" s="4" t="s">
-        <v>51</v>
+      <c r="D69" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="E69" s="4">
         <v>18</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -2339,10 +2377,10 @@
         <v>20</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -2355,17 +2393,17 @@
       <c r="C71" s="4">
         <v>1</v>
       </c>
-      <c r="D71" s="4" t="s">
-        <v>42</v>
+      <c r="D71" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="E71" s="4">
         <v>0</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -2378,17 +2416,17 @@
       <c r="C72" s="4">
         <v>2</v>
       </c>
-      <c r="D72" s="4" t="s">
-        <v>43</v>
+      <c r="D72" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="E72" s="4">
         <v>2</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -2401,17 +2439,17 @@
       <c r="C73" s="4">
         <v>3</v>
       </c>
-      <c r="D73" s="4" t="s">
-        <v>44</v>
+      <c r="D73" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="E73" s="4">
         <v>4</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -2424,17 +2462,17 @@
       <c r="C74" s="4">
         <v>4</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>45</v>
+      <c r="D74" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="E74" s="4">
         <v>6</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -2447,17 +2485,17 @@
       <c r="C75" s="4">
         <v>5</v>
       </c>
-      <c r="D75" s="4" t="s">
-        <v>46</v>
+      <c r="D75" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="E75" s="4">
         <v>8</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -2470,17 +2508,17 @@
       <c r="C76" s="4">
         <v>6</v>
       </c>
-      <c r="D76" s="4" t="s">
-        <v>47</v>
+      <c r="D76" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="E76" s="4">
         <v>10</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -2493,17 +2531,17 @@
       <c r="C77" s="4">
         <v>7</v>
       </c>
-      <c r="D77" s="4" t="s">
-        <v>48</v>
+      <c r="D77" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="E77" s="4">
         <v>12</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -2516,17 +2554,17 @@
       <c r="C78" s="4">
         <v>8</v>
       </c>
-      <c r="D78" s="4" t="s">
-        <v>49</v>
+      <c r="D78" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="E78" s="4">
         <v>14</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -2539,17 +2577,17 @@
       <c r="C79" s="4">
         <v>9</v>
       </c>
-      <c r="D79" s="4" t="s">
-        <v>50</v>
+      <c r="D79" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="E79" s="4">
         <v>16</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -2562,17 +2600,17 @@
       <c r="C80" s="4">
         <v>10</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>51</v>
+      <c r="D80" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="E80" s="4">
         <v>18</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -2589,10 +2627,10 @@
         <v>20</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -2605,17 +2643,17 @@
       <c r="C82" s="4">
         <v>1</v>
       </c>
-      <c r="D82" s="4" t="s">
-        <v>42</v>
+      <c r="D82" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="E82" s="4">
         <v>0</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -2628,17 +2666,17 @@
       <c r="C83" s="4">
         <v>2</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>43</v>
+      <c r="D83" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="E83" s="4">
         <v>2</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -2651,17 +2689,17 @@
       <c r="C84" s="4">
         <v>3</v>
       </c>
-      <c r="D84" s="4" t="s">
-        <v>44</v>
+      <c r="D84" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="E84" s="4">
         <v>4</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -2674,17 +2712,17 @@
       <c r="C85" s="4">
         <v>4</v>
       </c>
-      <c r="D85" s="4" t="s">
-        <v>45</v>
+      <c r="D85" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="E85" s="4">
         <v>6</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -2697,17 +2735,17 @@
       <c r="C86" s="4">
         <v>5</v>
       </c>
-      <c r="D86" s="4" t="s">
-        <v>46</v>
+      <c r="D86" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="E86" s="4">
         <v>8</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -2720,17 +2758,17 @@
       <c r="C87" s="4">
         <v>6</v>
       </c>
-      <c r="D87" s="4" t="s">
-        <v>47</v>
+      <c r="D87" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="E87" s="4">
         <v>10</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -2743,17 +2781,17 @@
       <c r="C88" s="4">
         <v>7</v>
       </c>
-      <c r="D88" s="4" t="s">
-        <v>48</v>
+      <c r="D88" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="E88" s="4">
         <v>12</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -2766,17 +2804,17 @@
       <c r="C89" s="4">
         <v>8</v>
       </c>
-      <c r="D89" s="4" t="s">
-        <v>49</v>
+      <c r="D89" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="E89" s="4">
         <v>14</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -2789,17 +2827,17 @@
       <c r="C90" s="4">
         <v>9</v>
       </c>
-      <c r="D90" s="4" t="s">
-        <v>50</v>
+      <c r="D90" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="E90" s="4">
         <v>16</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -2812,17 +2850,17 @@
       <c r="C91" s="4">
         <v>10</v>
       </c>
-      <c r="D91" s="4" t="s">
-        <v>51</v>
+      <c r="D91" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="E91" s="4">
         <v>18</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -2839,10 +2877,10 @@
         <v>20</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -2855,17 +2893,17 @@
       <c r="C93" s="4">
         <v>1</v>
       </c>
-      <c r="D93" s="4" t="s">
-        <v>42</v>
+      <c r="D93" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="E93" s="4">
         <v>0</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -2878,17 +2916,17 @@
       <c r="C94" s="4">
         <v>2</v>
       </c>
-      <c r="D94" s="4" t="s">
-        <v>43</v>
+      <c r="D94" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="E94" s="4">
         <v>2</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -2901,17 +2939,17 @@
       <c r="C95" s="4">
         <v>3</v>
       </c>
-      <c r="D95" s="4" t="s">
-        <v>44</v>
+      <c r="D95" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="E95" s="4">
         <v>4</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -2924,17 +2962,17 @@
       <c r="C96" s="4">
         <v>4</v>
       </c>
-      <c r="D96" s="4" t="s">
-        <v>45</v>
+      <c r="D96" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="E96" s="4">
         <v>6</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -2947,17 +2985,17 @@
       <c r="C97" s="4">
         <v>5</v>
       </c>
-      <c r="D97" s="4" t="s">
-        <v>46</v>
+      <c r="D97" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="E97" s="4">
         <v>8</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -2970,17 +3008,17 @@
       <c r="C98" s="4">
         <v>6</v>
       </c>
-      <c r="D98" s="4" t="s">
-        <v>47</v>
+      <c r="D98" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="E98" s="4">
         <v>10</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -2993,17 +3031,17 @@
       <c r="C99" s="4">
         <v>7</v>
       </c>
-      <c r="D99" s="4" t="s">
-        <v>48</v>
+      <c r="D99" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="E99" s="4">
         <v>12</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -3016,17 +3054,17 @@
       <c r="C100" s="4">
         <v>8</v>
       </c>
-      <c r="D100" s="4" t="s">
-        <v>49</v>
+      <c r="D100" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="E100" s="4">
         <v>14</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
@@ -3039,17 +3077,17 @@
       <c r="C101" s="4">
         <v>9</v>
       </c>
-      <c r="D101" s="4" t="s">
-        <v>50</v>
+      <c r="D101" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="E101" s="4">
         <v>16</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
@@ -3062,17 +3100,17 @@
       <c r="C102" s="4">
         <v>10</v>
       </c>
-      <c r="D102" s="4" t="s">
-        <v>51</v>
+      <c r="D102" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="E102" s="4">
         <v>18</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
@@ -3089,10 +3127,10 @@
         <v>20</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
@@ -3105,17 +3143,17 @@
       <c r="C104" s="4">
         <v>1</v>
       </c>
-      <c r="D104" s="4" t="s">
-        <v>42</v>
+      <c r="D104" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="E104" s="4">
         <v>0</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
@@ -3128,17 +3166,17 @@
       <c r="C105" s="4">
         <v>2</v>
       </c>
-      <c r="D105" s="4" t="s">
-        <v>43</v>
+      <c r="D105" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="E105" s="4">
         <v>2</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
@@ -3151,17 +3189,17 @@
       <c r="C106" s="4">
         <v>3</v>
       </c>
-      <c r="D106" s="4" t="s">
-        <v>44</v>
+      <c r="D106" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="E106" s="4">
         <v>4</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
@@ -3174,17 +3212,17 @@
       <c r="C107" s="4">
         <v>4</v>
       </c>
-      <c r="D107" s="4" t="s">
-        <v>45</v>
+      <c r="D107" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="E107" s="4">
         <v>6</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
@@ -3197,17 +3235,17 @@
       <c r="C108" s="4">
         <v>5</v>
       </c>
-      <c r="D108" s="4" t="s">
-        <v>46</v>
+      <c r="D108" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="E108" s="4">
         <v>8</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
@@ -3220,17 +3258,17 @@
       <c r="C109" s="4">
         <v>6</v>
       </c>
-      <c r="D109" s="4" t="s">
-        <v>47</v>
+      <c r="D109" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="E109" s="4">
         <v>10</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
@@ -3243,17 +3281,17 @@
       <c r="C110" s="4">
         <v>7</v>
       </c>
-      <c r="D110" s="4" t="s">
-        <v>48</v>
+      <c r="D110" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="E110" s="4">
         <v>12</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
@@ -3266,17 +3304,17 @@
       <c r="C111" s="4">
         <v>8</v>
       </c>
-      <c r="D111" s="4" t="s">
-        <v>49</v>
+      <c r="D111" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="E111" s="4">
         <v>14</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
@@ -3289,17 +3327,17 @@
       <c r="C112" s="4">
         <v>9</v>
       </c>
-      <c r="D112" s="4" t="s">
-        <v>50</v>
+      <c r="D112" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="E112" s="4">
         <v>16</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
@@ -3312,17 +3350,17 @@
       <c r="C113" s="4">
         <v>10</v>
       </c>
-      <c r="D113" s="4" t="s">
-        <v>51</v>
+      <c r="D113" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="E113" s="4">
         <v>18</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
@@ -3339,10 +3377,10 @@
         <v>20</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
@@ -3355,17 +3393,17 @@
       <c r="C115" s="4">
         <v>1</v>
       </c>
-      <c r="D115" s="4" t="s">
-        <v>52</v>
+      <c r="D115" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="E115" s="4">
         <v>0</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
@@ -3378,17 +3416,17 @@
       <c r="C116" s="4">
         <v>2</v>
       </c>
-      <c r="D116" s="4" t="s">
-        <v>53</v>
+      <c r="D116" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="E116" s="4">
         <v>2</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
@@ -3401,17 +3439,17 @@
       <c r="C117" s="4">
         <v>3</v>
       </c>
-      <c r="D117" s="4" t="s">
-        <v>54</v>
+      <c r="D117" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="E117" s="4">
         <v>4</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
@@ -3424,17 +3462,17 @@
       <c r="C118" s="4">
         <v>4</v>
       </c>
-      <c r="D118" s="4" t="s">
-        <v>55</v>
+      <c r="D118" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="E118" s="4">
         <v>6</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
@@ -3447,17 +3485,17 @@
       <c r="C119" s="4">
         <v>5</v>
       </c>
-      <c r="D119" s="4" t="s">
-        <v>56</v>
+      <c r="D119" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="E119" s="4">
         <v>8</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
@@ -3470,17 +3508,17 @@
       <c r="C120" s="4">
         <v>6</v>
       </c>
-      <c r="D120" s="4" t="s">
-        <v>57</v>
+      <c r="D120" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="E120" s="4">
         <v>10</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
@@ -3493,17 +3531,17 @@
       <c r="C121" s="4">
         <v>7</v>
       </c>
-      <c r="D121" s="4" t="s">
-        <v>58</v>
+      <c r="D121" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="E121" s="4">
         <v>12</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
@@ -3516,17 +3554,17 @@
       <c r="C122" s="4">
         <v>8</v>
       </c>
-      <c r="D122" s="4" t="s">
-        <v>59</v>
+      <c r="D122" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="E122" s="4">
         <v>14</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
@@ -3539,17 +3577,17 @@
       <c r="C123" s="4">
         <v>9</v>
       </c>
-      <c r="D123" s="4" t="s">
-        <v>60</v>
+      <c r="D123" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="E123" s="4">
         <v>16</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
@@ -3562,17 +3600,17 @@
       <c r="C124" s="4">
         <v>10</v>
       </c>
-      <c r="D124" s="4" t="s">
-        <v>61</v>
+      <c r="D124" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="E124" s="4">
         <v>18</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
@@ -3589,10 +3627,10 @@
         <v>20</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
@@ -3605,17 +3643,17 @@
       <c r="C126" s="4">
         <v>1</v>
       </c>
-      <c r="D126" s="4" t="s">
-        <v>52</v>
+      <c r="D126" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="E126" s="4">
         <v>0</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
@@ -3628,17 +3666,17 @@
       <c r="C127" s="4">
         <v>2</v>
       </c>
-      <c r="D127" s="4" t="s">
-        <v>53</v>
+      <c r="D127" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="E127" s="4">
         <v>2</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
@@ -3651,17 +3689,17 @@
       <c r="C128" s="4">
         <v>3</v>
       </c>
-      <c r="D128" s="4" t="s">
-        <v>54</v>
+      <c r="D128" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="E128" s="4">
         <v>4</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
@@ -3674,17 +3712,17 @@
       <c r="C129" s="4">
         <v>4</v>
       </c>
-      <c r="D129" s="4" t="s">
-        <v>55</v>
+      <c r="D129" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="E129" s="4">
         <v>6</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
@@ -3697,17 +3735,17 @@
       <c r="C130" s="4">
         <v>5</v>
       </c>
-      <c r="D130" s="4" t="s">
-        <v>56</v>
+      <c r="D130" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="E130" s="4">
         <v>8</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
@@ -3720,17 +3758,17 @@
       <c r="C131" s="4">
         <v>6</v>
       </c>
-      <c r="D131" s="4" t="s">
-        <v>57</v>
+      <c r="D131" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="E131" s="4">
         <v>10</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
@@ -3743,17 +3781,17 @@
       <c r="C132" s="4">
         <v>7</v>
       </c>
-      <c r="D132" s="4" t="s">
-        <v>58</v>
+      <c r="D132" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="E132" s="4">
         <v>12</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
@@ -3766,17 +3804,17 @@
       <c r="C133" s="4">
         <v>8</v>
       </c>
-      <c r="D133" s="4" t="s">
-        <v>59</v>
+      <c r="D133" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="E133" s="4">
         <v>14</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
@@ -3789,17 +3827,17 @@
       <c r="C134" s="4">
         <v>9</v>
       </c>
-      <c r="D134" s="4" t="s">
-        <v>60</v>
+      <c r="D134" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="E134" s="4">
         <v>16</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
@@ -3812,17 +3850,17 @@
       <c r="C135" s="4">
         <v>10</v>
       </c>
-      <c r="D135" s="4" t="s">
-        <v>61</v>
+      <c r="D135" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="E135" s="4">
         <v>18</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
@@ -3839,10 +3877,10 @@
         <v>20</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
@@ -3855,17 +3893,17 @@
       <c r="C137" s="4">
         <v>1</v>
       </c>
-      <c r="D137" s="4" t="s">
-        <v>52</v>
+      <c r="D137" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="E137" s="4">
         <v>0</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
@@ -3878,17 +3916,17 @@
       <c r="C138" s="4">
         <v>2</v>
       </c>
-      <c r="D138" s="4" t="s">
-        <v>53</v>
+      <c r="D138" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="E138" s="4">
         <v>2</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
@@ -3901,17 +3939,17 @@
       <c r="C139" s="4">
         <v>3</v>
       </c>
-      <c r="D139" s="4" t="s">
-        <v>54</v>
+      <c r="D139" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="E139" s="4">
         <v>4</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
@@ -3924,17 +3962,17 @@
       <c r="C140" s="4">
         <v>4</v>
       </c>
-      <c r="D140" s="4" t="s">
-        <v>55</v>
+      <c r="D140" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="E140" s="4">
         <v>6</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
@@ -3947,17 +3985,17 @@
       <c r="C141" s="4">
         <v>5</v>
       </c>
-      <c r="D141" s="4" t="s">
-        <v>56</v>
+      <c r="D141" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="E141" s="4">
         <v>8</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
@@ -3970,17 +4008,17 @@
       <c r="C142" s="4">
         <v>6</v>
       </c>
-      <c r="D142" s="4" t="s">
-        <v>57</v>
+      <c r="D142" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="E142" s="4">
         <v>10</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
@@ -3993,17 +4031,17 @@
       <c r="C143" s="4">
         <v>7</v>
       </c>
-      <c r="D143" s="4" t="s">
-        <v>58</v>
+      <c r="D143" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="E143" s="4">
         <v>12</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
@@ -4016,17 +4054,17 @@
       <c r="C144" s="4">
         <v>8</v>
       </c>
-      <c r="D144" s="4" t="s">
-        <v>59</v>
+      <c r="D144" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="E144" s="4">
         <v>14</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
@@ -4039,17 +4077,17 @@
       <c r="C145" s="4">
         <v>9</v>
       </c>
-      <c r="D145" s="4" t="s">
-        <v>60</v>
+      <c r="D145" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="E145" s="4">
         <v>16</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
@@ -4062,17 +4100,17 @@
       <c r="C146" s="4">
         <v>10</v>
       </c>
-      <c r="D146" s="4" t="s">
-        <v>61</v>
+      <c r="D146" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="E146" s="4">
         <v>18</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
@@ -4089,10 +4127,10 @@
         <v>20</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
@@ -4105,17 +4143,17 @@
       <c r="C148" s="4">
         <v>1</v>
       </c>
-      <c r="D148" s="4" t="s">
-        <v>52</v>
+      <c r="D148" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="E148" s="4">
         <v>0</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
@@ -4128,17 +4166,17 @@
       <c r="C149" s="4">
         <v>2</v>
       </c>
-      <c r="D149" s="4" t="s">
-        <v>53</v>
+      <c r="D149" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="E149" s="4">
         <v>2</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
@@ -4151,17 +4189,17 @@
       <c r="C150" s="4">
         <v>3</v>
       </c>
-      <c r="D150" s="4" t="s">
-        <v>54</v>
+      <c r="D150" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="E150" s="4">
         <v>4</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
@@ -4174,17 +4212,17 @@
       <c r="C151" s="4">
         <v>4</v>
       </c>
-      <c r="D151" s="4" t="s">
-        <v>55</v>
+      <c r="D151" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="E151" s="4">
         <v>6</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
@@ -4197,17 +4235,17 @@
       <c r="C152" s="4">
         <v>5</v>
       </c>
-      <c r="D152" s="4" t="s">
-        <v>56</v>
+      <c r="D152" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="E152" s="4">
         <v>8</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
@@ -4220,17 +4258,17 @@
       <c r="C153" s="4">
         <v>6</v>
       </c>
-      <c r="D153" s="4" t="s">
-        <v>57</v>
+      <c r="D153" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="E153" s="4">
         <v>10</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
@@ -4243,17 +4281,17 @@
       <c r="C154" s="4">
         <v>7</v>
       </c>
-      <c r="D154" s="4" t="s">
-        <v>58</v>
+      <c r="D154" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="E154" s="4">
         <v>12</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
@@ -4266,17 +4304,17 @@
       <c r="C155" s="4">
         <v>8</v>
       </c>
-      <c r="D155" s="4" t="s">
-        <v>59</v>
+      <c r="D155" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="E155" s="4">
         <v>14</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
@@ -4289,17 +4327,17 @@
       <c r="C156" s="4">
         <v>9</v>
       </c>
-      <c r="D156" s="4" t="s">
-        <v>60</v>
+      <c r="D156" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="E156" s="4">
         <v>16</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
@@ -4312,17 +4350,17 @@
       <c r="C157" s="4">
         <v>10</v>
       </c>
-      <c r="D157" s="4" t="s">
-        <v>61</v>
+      <c r="D157" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="E157" s="4">
         <v>18</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
@@ -4339,10 +4377,10 @@
         <v>20</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
@@ -4355,17 +4393,17 @@
       <c r="C159" s="4">
         <v>1</v>
       </c>
-      <c r="D159" s="4" t="s">
-        <v>52</v>
+      <c r="D159" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="E159" s="4">
         <v>0</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
@@ -4378,17 +4416,17 @@
       <c r="C160" s="4">
         <v>2</v>
       </c>
-      <c r="D160" s="4" t="s">
-        <v>53</v>
+      <c r="D160" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="E160" s="4">
         <v>2</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
@@ -4401,17 +4439,17 @@
       <c r="C161" s="4">
         <v>3</v>
       </c>
-      <c r="D161" s="4" t="s">
-        <v>54</v>
+      <c r="D161" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="E161" s="4">
         <v>4</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
@@ -4424,17 +4462,17 @@
       <c r="C162" s="4">
         <v>4</v>
       </c>
-      <c r="D162" s="4" t="s">
-        <v>55</v>
+      <c r="D162" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="E162" s="4">
         <v>6</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
@@ -4447,17 +4485,17 @@
       <c r="C163" s="4">
         <v>5</v>
       </c>
-      <c r="D163" s="4" t="s">
-        <v>56</v>
+      <c r="D163" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="E163" s="4">
         <v>8</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
@@ -4470,17 +4508,17 @@
       <c r="C164" s="4">
         <v>6</v>
       </c>
-      <c r="D164" s="4" t="s">
-        <v>57</v>
+      <c r="D164" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="E164" s="4">
         <v>10</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
@@ -4493,17 +4531,17 @@
       <c r="C165" s="4">
         <v>7</v>
       </c>
-      <c r="D165" s="4" t="s">
-        <v>58</v>
+      <c r="D165" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="E165" s="4">
         <v>12</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
@@ -4516,17 +4554,17 @@
       <c r="C166" s="4">
         <v>8</v>
       </c>
-      <c r="D166" s="4" t="s">
-        <v>59</v>
+      <c r="D166" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="E166" s="4">
         <v>14</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
@@ -4539,17 +4577,17 @@
       <c r="C167" s="4">
         <v>9</v>
       </c>
-      <c r="D167" s="4" t="s">
-        <v>60</v>
+      <c r="D167" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="E167" s="4">
         <v>16</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
@@ -4562,17 +4600,17 @@
       <c r="C168" s="4">
         <v>10</v>
       </c>
-      <c r="D168" s="4" t="s">
-        <v>61</v>
+      <c r="D168" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="E168" s="4">
         <v>18</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
@@ -4589,10 +4627,10 @@
         <v>20</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">

--- a/docs/excel/PalacePart.xlsx
+++ b/docs/excel/PalacePart.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="85">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -766,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M305"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="A167" sqref="A167:A224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -4138,7 +4138,7 @@
         <v>144</v>
       </c>
       <c r="B148" s="5">
-        <v>404</v>
+        <v>304</v>
       </c>
       <c r="C148" s="4">
         <v>1</v>
@@ -4161,7 +4161,7 @@
         <v>145</v>
       </c>
       <c r="B149" s="5">
-        <v>404</v>
+        <v>304</v>
       </c>
       <c r="C149" s="4">
         <v>2</v>
@@ -4184,7 +4184,7 @@
         <v>146</v>
       </c>
       <c r="B150" s="5">
-        <v>404</v>
+        <v>304</v>
       </c>
       <c r="C150" s="4">
         <v>3</v>
@@ -4207,7 +4207,7 @@
         <v>147</v>
       </c>
       <c r="B151" s="5">
-        <v>404</v>
+        <v>304</v>
       </c>
       <c r="C151" s="4">
         <v>4</v>
@@ -4230,7 +4230,7 @@
         <v>148</v>
       </c>
       <c r="B152" s="5">
-        <v>404</v>
+        <v>304</v>
       </c>
       <c r="C152" s="4">
         <v>5</v>
@@ -4253,7 +4253,7 @@
         <v>149</v>
       </c>
       <c r="B153" s="5">
-        <v>404</v>
+        <v>304</v>
       </c>
       <c r="C153" s="4">
         <v>6</v>
@@ -4276,7 +4276,7 @@
         <v>150</v>
       </c>
       <c r="B154" s="5">
-        <v>404</v>
+        <v>304</v>
       </c>
       <c r="C154" s="4">
         <v>7</v>
@@ -4299,7 +4299,7 @@
         <v>151</v>
       </c>
       <c r="B155" s="5">
-        <v>404</v>
+        <v>304</v>
       </c>
       <c r="C155" s="4">
         <v>8</v>
@@ -4322,7 +4322,7 @@
         <v>152</v>
       </c>
       <c r="B156" s="5">
-        <v>404</v>
+        <v>304</v>
       </c>
       <c r="C156" s="4">
         <v>9</v>
@@ -4345,7 +4345,7 @@
         <v>153</v>
       </c>
       <c r="B157" s="5">
-        <v>404</v>
+        <v>304</v>
       </c>
       <c r="C157" s="4">
         <v>10</v>
@@ -4368,7 +4368,7 @@
         <v>154</v>
       </c>
       <c r="B158" s="5">
-        <v>404</v>
+        <v>304</v>
       </c>
       <c r="C158" s="4">
         <v>11</v>
@@ -4388,7 +4388,7 @@
         <v>155</v>
       </c>
       <c r="B159" s="5">
-        <v>505</v>
+        <v>305</v>
       </c>
       <c r="C159" s="4">
         <v>1</v>
@@ -4411,7 +4411,7 @@
         <v>156</v>
       </c>
       <c r="B160" s="5">
-        <v>505</v>
+        <v>305</v>
       </c>
       <c r="C160" s="4">
         <v>2</v>
@@ -4434,7 +4434,7 @@
         <v>157</v>
       </c>
       <c r="B161" s="5">
-        <v>505</v>
+        <v>305</v>
       </c>
       <c r="C161" s="4">
         <v>3</v>
@@ -4457,7 +4457,7 @@
         <v>158</v>
       </c>
       <c r="B162" s="5">
-        <v>505</v>
+        <v>305</v>
       </c>
       <c r="C162" s="4">
         <v>4</v>
@@ -4480,7 +4480,7 @@
         <v>159</v>
       </c>
       <c r="B163" s="5">
-        <v>505</v>
+        <v>305</v>
       </c>
       <c r="C163" s="4">
         <v>5</v>
@@ -4503,7 +4503,7 @@
         <v>160</v>
       </c>
       <c r="B164" s="5">
-        <v>505</v>
+        <v>305</v>
       </c>
       <c r="C164" s="4">
         <v>6</v>
@@ -4526,7 +4526,7 @@
         <v>161</v>
       </c>
       <c r="B165" s="5">
-        <v>505</v>
+        <v>305</v>
       </c>
       <c r="C165" s="4">
         <v>7</v>
@@ -4549,7 +4549,7 @@
         <v>162</v>
       </c>
       <c r="B166" s="5">
-        <v>505</v>
+        <v>305</v>
       </c>
       <c r="C166" s="4">
         <v>8</v>
@@ -4572,7 +4572,7 @@
         <v>163</v>
       </c>
       <c r="B167" s="5">
-        <v>505</v>
+        <v>305</v>
       </c>
       <c r="C167" s="4">
         <v>9</v>
@@ -4595,7 +4595,7 @@
         <v>164</v>
       </c>
       <c r="B168" s="5">
-        <v>505</v>
+        <v>305</v>
       </c>
       <c r="C168" s="4">
         <v>10</v>
@@ -4618,7 +4618,7 @@
         <v>165</v>
       </c>
       <c r="B169" s="5">
-        <v>505</v>
+        <v>305</v>
       </c>
       <c r="C169" s="4">
         <v>11</v>
@@ -4634,196 +4634,1254 @@
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A170" s="4"/>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A171" s="4"/>
-      <c r="B171" s="4"/>
+      <c r="A170" s="4">
+        <v>166</v>
+      </c>
+      <c r="B170" s="5">
+        <v>401</v>
+      </c>
+      <c r="C170" s="4">
+        <v>1</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E170" s="4">
+        <v>0</v>
+      </c>
+      <c r="F170" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A171" s="4">
+        <v>167</v>
+      </c>
+      <c r="B171" s="5">
+        <v>401</v>
+      </c>
+      <c r="C171" s="4">
+        <v>2</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E171" s="4">
+        <v>2</v>
+      </c>
+      <c r="F171" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A172" s="4"/>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A173" s="4"/>
-      <c r="B173" s="4"/>
+      <c r="A172" s="4">
+        <v>168</v>
+      </c>
+      <c r="B172" s="5">
+        <v>401</v>
+      </c>
+      <c r="C172" s="4">
+        <v>3</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E172" s="4">
+        <v>4</v>
+      </c>
+      <c r="F172" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A173" s="4">
+        <v>169</v>
+      </c>
+      <c r="B173" s="5">
+        <v>401</v>
+      </c>
+      <c r="C173" s="4">
+        <v>4</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E173" s="4">
+        <v>6</v>
+      </c>
+      <c r="F173" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A174" s="4"/>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A175" s="4"/>
-      <c r="B175" s="4"/>
+      <c r="A174" s="4">
+        <v>170</v>
+      </c>
+      <c r="B174" s="5">
+        <v>401</v>
+      </c>
+      <c r="C174" s="4">
+        <v>5</v>
+      </c>
+      <c r="D174" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E174" s="4">
+        <v>8</v>
+      </c>
+      <c r="F174" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A175" s="4">
+        <v>171</v>
+      </c>
+      <c r="B175" s="5">
+        <v>401</v>
+      </c>
+      <c r="C175" s="4">
+        <v>6</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E175" s="4">
+        <v>10</v>
+      </c>
+      <c r="F175" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A176" s="4"/>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" s="4"/>
-      <c r="B177" s="4"/>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" s="4"/>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" s="4"/>
-      <c r="B179" s="4"/>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" s="4"/>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" s="4"/>
-      <c r="B181" s="4"/>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" s="4"/>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" s="4"/>
-      <c r="B183" s="4"/>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" s="4"/>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" s="4"/>
-      <c r="B185" s="4"/>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" s="4"/>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187" s="4"/>
-      <c r="B187" s="4"/>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188" s="4"/>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189" s="4"/>
-      <c r="B189" s="4"/>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" s="4"/>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191" s="4"/>
-      <c r="B191" s="4"/>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192" s="4"/>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193" s="4"/>
-      <c r="B193" s="4"/>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" s="4"/>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A195" s="4"/>
-      <c r="B195" s="4"/>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196" s="4"/>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197" s="4"/>
-      <c r="B197" s="4"/>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198" s="4"/>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199" s="4"/>
-      <c r="B199" s="4"/>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200" s="4"/>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201" s="4"/>
-      <c r="B201" s="4"/>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202" s="4"/>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203" s="4"/>
-      <c r="B203" s="4"/>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A204" s="4"/>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205" s="4"/>
-      <c r="B205" s="4"/>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A206" s="4"/>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A207" s="4"/>
-      <c r="B207" s="4"/>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A208" s="4"/>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A209" s="4"/>
-      <c r="B209" s="4"/>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A210" s="4"/>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A211" s="4"/>
-      <c r="B211" s="4"/>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A212" s="4"/>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A213" s="4"/>
-      <c r="B213" s="4"/>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A214" s="4"/>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A215" s="4"/>
-      <c r="B215" s="4"/>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A216" s="4"/>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A217" s="4"/>
-      <c r="B217" s="4"/>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A218" s="4"/>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A219" s="4"/>
-      <c r="B219" s="4"/>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A220" s="4"/>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A221" s="4"/>
-      <c r="B221" s="4"/>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A222" s="4"/>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A223" s="4"/>
-      <c r="B223" s="4"/>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A224" s="4"/>
+      <c r="A176" s="4">
+        <v>172</v>
+      </c>
+      <c r="B176" s="5">
+        <v>401</v>
+      </c>
+      <c r="C176" s="4">
+        <v>7</v>
+      </c>
+      <c r="D176" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E176" s="4">
+        <v>12</v>
+      </c>
+      <c r="F176" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A177" s="4">
+        <v>173</v>
+      </c>
+      <c r="B177" s="5">
+        <v>401</v>
+      </c>
+      <c r="C177" s="4">
+        <v>8</v>
+      </c>
+      <c r="D177" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E177" s="4">
+        <v>14</v>
+      </c>
+      <c r="F177" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A178" s="4">
+        <v>174</v>
+      </c>
+      <c r="B178" s="5">
+        <v>401</v>
+      </c>
+      <c r="C178" s="4">
+        <v>9</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E178" s="4">
+        <v>16</v>
+      </c>
+      <c r="F178" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G178" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A179" s="4">
+        <v>175</v>
+      </c>
+      <c r="B179" s="5">
+        <v>401</v>
+      </c>
+      <c r="C179" s="4">
+        <v>10</v>
+      </c>
+      <c r="D179" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E179" s="4">
+        <v>18</v>
+      </c>
+      <c r="F179" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G179" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A180" s="4">
+        <v>176</v>
+      </c>
+      <c r="B180" s="5">
+        <v>401</v>
+      </c>
+      <c r="C180" s="4">
+        <v>11</v>
+      </c>
+      <c r="E180" s="4">
+        <v>20</v>
+      </c>
+      <c r="F180" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G180" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A181" s="4">
+        <v>177</v>
+      </c>
+      <c r="B181" s="5">
+        <v>402</v>
+      </c>
+      <c r="C181" s="4">
+        <v>1</v>
+      </c>
+      <c r="D181" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E181" s="4">
+        <v>0</v>
+      </c>
+      <c r="F181" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G181" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A182" s="4">
+        <v>178</v>
+      </c>
+      <c r="B182" s="5">
+        <v>402</v>
+      </c>
+      <c r="C182" s="4">
+        <v>2</v>
+      </c>
+      <c r="D182" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E182" s="4">
+        <v>2</v>
+      </c>
+      <c r="F182" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G182" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A183" s="4">
+        <v>179</v>
+      </c>
+      <c r="B183" s="5">
+        <v>402</v>
+      </c>
+      <c r="C183" s="4">
+        <v>3</v>
+      </c>
+      <c r="D183" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E183" s="4">
+        <v>4</v>
+      </c>
+      <c r="F183" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G183" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A184" s="4">
+        <v>180</v>
+      </c>
+      <c r="B184" s="5">
+        <v>402</v>
+      </c>
+      <c r="C184" s="4">
+        <v>4</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E184" s="4">
+        <v>6</v>
+      </c>
+      <c r="F184" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G184" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A185" s="4">
+        <v>181</v>
+      </c>
+      <c r="B185" s="5">
+        <v>402</v>
+      </c>
+      <c r="C185" s="4">
+        <v>5</v>
+      </c>
+      <c r="D185" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E185" s="4">
+        <v>8</v>
+      </c>
+      <c r="F185" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G185" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A186" s="4">
+        <v>182</v>
+      </c>
+      <c r="B186" s="5">
+        <v>402</v>
+      </c>
+      <c r="C186" s="4">
+        <v>6</v>
+      </c>
+      <c r="D186" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E186" s="4">
+        <v>10</v>
+      </c>
+      <c r="F186" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G186" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A187" s="4">
+        <v>183</v>
+      </c>
+      <c r="B187" s="5">
+        <v>402</v>
+      </c>
+      <c r="C187" s="4">
+        <v>7</v>
+      </c>
+      <c r="D187" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E187" s="4">
+        <v>12</v>
+      </c>
+      <c r="F187" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G187" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A188" s="4">
+        <v>184</v>
+      </c>
+      <c r="B188" s="5">
+        <v>402</v>
+      </c>
+      <c r="C188" s="4">
+        <v>8</v>
+      </c>
+      <c r="D188" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E188" s="4">
+        <v>14</v>
+      </c>
+      <c r="F188" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G188" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A189" s="4">
+        <v>185</v>
+      </c>
+      <c r="B189" s="5">
+        <v>402</v>
+      </c>
+      <c r="C189" s="4">
+        <v>9</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E189" s="4">
+        <v>16</v>
+      </c>
+      <c r="F189" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A190" s="4">
+        <v>186</v>
+      </c>
+      <c r="B190" s="5">
+        <v>402</v>
+      </c>
+      <c r="C190" s="4">
+        <v>10</v>
+      </c>
+      <c r="D190" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E190" s="4">
+        <v>18</v>
+      </c>
+      <c r="F190" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G190" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A191" s="4">
+        <v>187</v>
+      </c>
+      <c r="B191" s="5">
+        <v>402</v>
+      </c>
+      <c r="C191" s="4">
+        <v>11</v>
+      </c>
+      <c r="E191" s="4">
+        <v>20</v>
+      </c>
+      <c r="F191" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G191" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A192" s="4">
+        <v>188</v>
+      </c>
+      <c r="B192" s="5">
+        <v>403</v>
+      </c>
+      <c r="C192" s="4">
+        <v>1</v>
+      </c>
+      <c r="D192" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E192" s="4">
+        <v>0</v>
+      </c>
+      <c r="F192" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G192" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A193" s="4">
+        <v>189</v>
+      </c>
+      <c r="B193" s="5">
+        <v>403</v>
+      </c>
+      <c r="C193" s="4">
+        <v>2</v>
+      </c>
+      <c r="D193" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E193" s="4">
+        <v>2</v>
+      </c>
+      <c r="F193" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G193" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A194" s="4">
+        <v>190</v>
+      </c>
+      <c r="B194" s="5">
+        <v>403</v>
+      </c>
+      <c r="C194" s="4">
+        <v>3</v>
+      </c>
+      <c r="D194" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E194" s="4">
+        <v>4</v>
+      </c>
+      <c r="F194" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G194" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A195" s="4">
+        <v>191</v>
+      </c>
+      <c r="B195" s="5">
+        <v>403</v>
+      </c>
+      <c r="C195" s="4">
+        <v>4</v>
+      </c>
+      <c r="D195" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E195" s="4">
+        <v>6</v>
+      </c>
+      <c r="F195" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G195" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A196" s="4">
+        <v>192</v>
+      </c>
+      <c r="B196" s="5">
+        <v>403</v>
+      </c>
+      <c r="C196" s="4">
+        <v>5</v>
+      </c>
+      <c r="D196" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E196" s="4">
+        <v>8</v>
+      </c>
+      <c r="F196" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G196" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A197" s="4">
+        <v>193</v>
+      </c>
+      <c r="B197" s="5">
+        <v>403</v>
+      </c>
+      <c r="C197" s="4">
+        <v>6</v>
+      </c>
+      <c r="D197" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E197" s="4">
+        <v>10</v>
+      </c>
+      <c r="F197" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G197" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A198" s="4">
+        <v>194</v>
+      </c>
+      <c r="B198" s="5">
+        <v>403</v>
+      </c>
+      <c r="C198" s="4">
+        <v>7</v>
+      </c>
+      <c r="D198" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E198" s="4">
+        <v>12</v>
+      </c>
+      <c r="F198" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G198" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A199" s="4">
+        <v>195</v>
+      </c>
+      <c r="B199" s="5">
+        <v>403</v>
+      </c>
+      <c r="C199" s="4">
+        <v>8</v>
+      </c>
+      <c r="D199" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E199" s="4">
+        <v>14</v>
+      </c>
+      <c r="F199" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G199" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A200" s="4">
+        <v>196</v>
+      </c>
+      <c r="B200" s="5">
+        <v>403</v>
+      </c>
+      <c r="C200" s="4">
+        <v>9</v>
+      </c>
+      <c r="D200" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E200" s="4">
+        <v>16</v>
+      </c>
+      <c r="F200" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G200" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A201" s="4">
+        <v>197</v>
+      </c>
+      <c r="B201" s="5">
+        <v>403</v>
+      </c>
+      <c r="C201" s="4">
+        <v>10</v>
+      </c>
+      <c r="D201" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E201" s="4">
+        <v>18</v>
+      </c>
+      <c r="F201" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G201" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A202" s="4">
+        <v>198</v>
+      </c>
+      <c r="B202" s="5">
+        <v>403</v>
+      </c>
+      <c r="C202" s="4">
+        <v>11</v>
+      </c>
+      <c r="E202" s="4">
+        <v>20</v>
+      </c>
+      <c r="F202" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G202" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A203" s="4">
+        <v>199</v>
+      </c>
+      <c r="B203" s="5">
+        <v>404</v>
+      </c>
+      <c r="C203" s="4">
+        <v>1</v>
+      </c>
+      <c r="D203" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E203" s="4">
+        <v>0</v>
+      </c>
+      <c r="F203" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G203" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A204" s="4">
+        <v>200</v>
+      </c>
+      <c r="B204" s="5">
+        <v>404</v>
+      </c>
+      <c r="C204" s="4">
+        <v>2</v>
+      </c>
+      <c r="D204" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E204" s="4">
+        <v>2</v>
+      </c>
+      <c r="F204" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G204" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A205" s="4">
+        <v>201</v>
+      </c>
+      <c r="B205" s="5">
+        <v>404</v>
+      </c>
+      <c r="C205" s="4">
+        <v>3</v>
+      </c>
+      <c r="D205" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E205" s="4">
+        <v>4</v>
+      </c>
+      <c r="F205" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G205" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A206" s="4">
+        <v>202</v>
+      </c>
+      <c r="B206" s="5">
+        <v>404</v>
+      </c>
+      <c r="C206" s="4">
+        <v>4</v>
+      </c>
+      <c r="D206" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E206" s="4">
+        <v>6</v>
+      </c>
+      <c r="F206" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G206" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A207" s="4">
+        <v>203</v>
+      </c>
+      <c r="B207" s="5">
+        <v>404</v>
+      </c>
+      <c r="C207" s="4">
+        <v>5</v>
+      </c>
+      <c r="D207" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E207" s="4">
+        <v>8</v>
+      </c>
+      <c r="F207" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G207" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A208" s="4">
+        <v>204</v>
+      </c>
+      <c r="B208" s="5">
+        <v>404</v>
+      </c>
+      <c r="C208" s="4">
+        <v>6</v>
+      </c>
+      <c r="D208" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E208" s="4">
+        <v>10</v>
+      </c>
+      <c r="F208" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G208" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A209" s="4">
+        <v>205</v>
+      </c>
+      <c r="B209" s="5">
+        <v>404</v>
+      </c>
+      <c r="C209" s="4">
+        <v>7</v>
+      </c>
+      <c r="D209" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E209" s="4">
+        <v>12</v>
+      </c>
+      <c r="F209" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G209" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A210" s="4">
+        <v>206</v>
+      </c>
+      <c r="B210" s="5">
+        <v>404</v>
+      </c>
+      <c r="C210" s="4">
+        <v>8</v>
+      </c>
+      <c r="D210" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E210" s="4">
+        <v>14</v>
+      </c>
+      <c r="F210" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G210" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A211" s="4">
+        <v>207</v>
+      </c>
+      <c r="B211" s="5">
+        <v>404</v>
+      </c>
+      <c r="C211" s="4">
+        <v>9</v>
+      </c>
+      <c r="D211" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E211" s="4">
+        <v>16</v>
+      </c>
+      <c r="F211" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G211" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A212" s="4">
+        <v>208</v>
+      </c>
+      <c r="B212" s="5">
+        <v>404</v>
+      </c>
+      <c r="C212" s="4">
+        <v>10</v>
+      </c>
+      <c r="D212" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E212" s="4">
+        <v>18</v>
+      </c>
+      <c r="F212" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G212" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A213" s="4">
+        <v>209</v>
+      </c>
+      <c r="B213" s="5">
+        <v>404</v>
+      </c>
+      <c r="C213" s="4">
+        <v>11</v>
+      </c>
+      <c r="E213" s="4">
+        <v>20</v>
+      </c>
+      <c r="F213" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G213" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A214" s="4">
+        <v>210</v>
+      </c>
+      <c r="B214" s="5">
+        <v>405</v>
+      </c>
+      <c r="C214" s="4">
+        <v>1</v>
+      </c>
+      <c r="D214" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E214" s="4">
+        <v>0</v>
+      </c>
+      <c r="F214" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G214" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A215" s="4">
+        <v>211</v>
+      </c>
+      <c r="B215" s="5">
+        <v>405</v>
+      </c>
+      <c r="C215" s="4">
+        <v>2</v>
+      </c>
+      <c r="D215" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E215" s="4">
+        <v>2</v>
+      </c>
+      <c r="F215" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G215" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A216" s="4">
+        <v>212</v>
+      </c>
+      <c r="B216" s="5">
+        <v>405</v>
+      </c>
+      <c r="C216" s="4">
+        <v>3</v>
+      </c>
+      <c r="D216" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E216" s="4">
+        <v>4</v>
+      </c>
+      <c r="F216" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G216" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A217" s="4">
+        <v>213</v>
+      </c>
+      <c r="B217" s="5">
+        <v>405</v>
+      </c>
+      <c r="C217" s="4">
+        <v>4</v>
+      </c>
+      <c r="D217" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E217" s="4">
+        <v>6</v>
+      </c>
+      <c r="F217" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G217" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A218" s="4">
+        <v>214</v>
+      </c>
+      <c r="B218" s="5">
+        <v>405</v>
+      </c>
+      <c r="C218" s="4">
+        <v>5</v>
+      </c>
+      <c r="D218" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E218" s="4">
+        <v>8</v>
+      </c>
+      <c r="F218" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G218" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A219" s="4">
+        <v>215</v>
+      </c>
+      <c r="B219" s="5">
+        <v>405</v>
+      </c>
+      <c r="C219" s="4">
+        <v>6</v>
+      </c>
+      <c r="D219" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E219" s="4">
+        <v>10</v>
+      </c>
+      <c r="F219" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G219" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A220" s="4">
+        <v>216</v>
+      </c>
+      <c r="B220" s="5">
+        <v>405</v>
+      </c>
+      <c r="C220" s="4">
+        <v>7</v>
+      </c>
+      <c r="D220" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E220" s="4">
+        <v>12</v>
+      </c>
+      <c r="F220" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G220" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A221" s="4">
+        <v>217</v>
+      </c>
+      <c r="B221" s="5">
+        <v>405</v>
+      </c>
+      <c r="C221" s="4">
+        <v>8</v>
+      </c>
+      <c r="D221" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E221" s="4">
+        <v>14</v>
+      </c>
+      <c r="F221" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G221" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A222" s="4">
+        <v>218</v>
+      </c>
+      <c r="B222" s="5">
+        <v>405</v>
+      </c>
+      <c r="C222" s="4">
+        <v>9</v>
+      </c>
+      <c r="D222" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E222" s="4">
+        <v>16</v>
+      </c>
+      <c r="F222" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G222" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A223" s="4">
+        <v>219</v>
+      </c>
+      <c r="B223" s="5">
+        <v>405</v>
+      </c>
+      <c r="C223" s="4">
+        <v>10</v>
+      </c>
+      <c r="D223" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E223" s="4">
+        <v>18</v>
+      </c>
+      <c r="F223" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G223" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A224" s="4">
+        <v>220</v>
+      </c>
+      <c r="B224" s="5">
+        <v>405</v>
+      </c>
+      <c r="C224" s="4">
+        <v>11</v>
+      </c>
+      <c r="E224" s="4">
+        <v>20</v>
+      </c>
+      <c r="F224" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G224" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="4"/>

--- a/docs/excel/PalacePart.xlsx
+++ b/docs/excel/PalacePart.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="95">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -252,19 +252,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2_30,1_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_60,1_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_100,1_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_120,1_0000</t>
+    <t>2_3,1_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_6,1_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_10,1_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_12,1_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_15,1_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_20,1_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_80,1_0000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -272,51 +284,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2_200,1_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_800,1_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_1500,1_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_5500,1_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_8900,1_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_30,2_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_60,2_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_100,2_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_120,2_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_150,2_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_200,2_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_800,2_0000</t>
+    <t>2_550,1_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_890,1_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_3000,1_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_6000,1_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_1,2_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_1,2_2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_1,2_5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_2,2_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_8,2_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_15,2_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_55,2_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_89,2_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_300,2_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_600,2_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_1000,2_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_1200,2_0000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -324,11 +352,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3_5500,2_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_8900,2_0000</t>
+    <t>3_2000,2_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_8000,2_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_1,3_5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_5,3_5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_8,3_9000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -766,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="A167" sqref="A167:A224"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -4644,7 +4684,7 @@
         <v>1</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E170" s="4">
         <v>0</v>
@@ -4667,7 +4707,7 @@
         <v>2</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E171" s="4">
         <v>2</v>
@@ -4690,7 +4730,7 @@
         <v>3</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E172" s="4">
         <v>4</v>
@@ -4713,7 +4753,7 @@
         <v>4</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E173" s="4">
         <v>6</v>
@@ -4736,7 +4776,7 @@
         <v>5</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E174" s="4">
         <v>8</v>
@@ -4759,7 +4799,7 @@
         <v>6</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E175" s="4">
         <v>10</v>
@@ -4782,7 +4822,7 @@
         <v>7</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E176" s="4">
         <v>12</v>
@@ -4805,7 +4845,7 @@
         <v>8</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E177" s="4">
         <v>14</v>
@@ -4828,7 +4868,7 @@
         <v>9</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E178" s="4">
         <v>16</v>
@@ -4851,7 +4891,7 @@
         <v>10</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E179" s="4">
         <v>18</v>
@@ -4894,7 +4934,7 @@
         <v>1</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E181" s="4">
         <v>0</v>
@@ -4917,7 +4957,7 @@
         <v>2</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E182" s="4">
         <v>2</v>
@@ -4940,7 +4980,7 @@
         <v>3</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E183" s="4">
         <v>4</v>
@@ -4963,7 +5003,7 @@
         <v>4</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E184" s="4">
         <v>6</v>
@@ -4986,7 +5026,7 @@
         <v>5</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E185" s="4">
         <v>8</v>
@@ -5009,7 +5049,7 @@
         <v>6</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E186" s="4">
         <v>10</v>
@@ -5032,7 +5072,7 @@
         <v>7</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E187" s="4">
         <v>12</v>
@@ -5055,7 +5095,7 @@
         <v>8</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E188" s="4">
         <v>14</v>
@@ -5078,7 +5118,7 @@
         <v>9</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E189" s="4">
         <v>16</v>
@@ -5101,7 +5141,7 @@
         <v>10</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E190" s="4">
         <v>18</v>
@@ -5144,7 +5184,7 @@
         <v>1</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E192" s="4">
         <v>0</v>
@@ -5167,7 +5207,7 @@
         <v>2</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E193" s="4">
         <v>2</v>
@@ -5190,7 +5230,7 @@
         <v>3</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E194" s="4">
         <v>4</v>
@@ -5213,7 +5253,7 @@
         <v>4</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E195" s="4">
         <v>6</v>
@@ -5236,7 +5276,7 @@
         <v>5</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E196" s="4">
         <v>8</v>
@@ -5259,7 +5299,7 @@
         <v>6</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E197" s="4">
         <v>10</v>
@@ -5282,7 +5322,7 @@
         <v>7</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E198" s="4">
         <v>12</v>
@@ -5305,7 +5345,7 @@
         <v>8</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E199" s="4">
         <v>14</v>
@@ -5328,7 +5368,7 @@
         <v>9</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E200" s="4">
         <v>16</v>
@@ -5351,7 +5391,7 @@
         <v>10</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E201" s="4">
         <v>18</v>
@@ -5394,7 +5434,7 @@
         <v>1</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E203" s="4">
         <v>0</v>
@@ -5417,7 +5457,7 @@
         <v>2</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E204" s="4">
         <v>2</v>
@@ -5440,7 +5480,7 @@
         <v>3</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E205" s="4">
         <v>4</v>
@@ -5463,7 +5503,7 @@
         <v>4</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E206" s="4">
         <v>6</v>
@@ -5486,7 +5526,7 @@
         <v>5</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E207" s="4">
         <v>8</v>
@@ -5509,7 +5549,7 @@
         <v>6</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E208" s="4">
         <v>10</v>
@@ -5532,7 +5572,7 @@
         <v>7</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E209" s="4">
         <v>12</v>
@@ -5555,7 +5595,7 @@
         <v>8</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E210" s="4">
         <v>14</v>
@@ -5578,7 +5618,7 @@
         <v>9</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E211" s="4">
         <v>16</v>
@@ -5601,7 +5641,7 @@
         <v>10</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E212" s="4">
         <v>18</v>
@@ -5644,7 +5684,7 @@
         <v>1</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E214" s="4">
         <v>0</v>
@@ -5667,7 +5707,7 @@
         <v>2</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E215" s="4">
         <v>2</v>
@@ -5690,7 +5730,7 @@
         <v>3</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E216" s="4">
         <v>4</v>
@@ -5713,7 +5753,7 @@
         <v>4</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E217" s="4">
         <v>6</v>
@@ -5736,7 +5776,7 @@
         <v>5</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E218" s="4">
         <v>8</v>
@@ -5759,7 +5799,7 @@
         <v>6</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E219" s="4">
         <v>10</v>
@@ -5782,7 +5822,7 @@
         <v>7</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E220" s="4">
         <v>12</v>
@@ -5805,7 +5845,7 @@
         <v>8</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E221" s="4">
         <v>14</v>
@@ -5828,7 +5868,7 @@
         <v>9</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E222" s="4">
         <v>16</v>
@@ -5851,7 +5891,7 @@
         <v>10</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E223" s="4">
         <v>18</v>
